--- a/Blog Post Data Analysis/Model_Summary_3v3_V2.xlsx
+++ b/Blog Post Data Analysis/Model_Summary_3v3_V2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
   <si>
     <t>Categorical Variable</t>
   </si>
@@ -131,6 +131,9 @@
     <t>NetControlReceived2</t>
   </si>
   <si>
+    <t>NetControlReceived3</t>
+  </si>
+  <si>
     <t>NetPing1</t>
   </si>
   <si>
@@ -197,18 +200,18 @@
     <t>p value &gt; alpha and beta changes all less than 20%</t>
   </si>
   <si>
+    <t>Full Model</t>
+  </si>
+  <si>
+    <t>p value &gt; alpha but one or more beta percent change was greater than 20%</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Full Model</t>
-  </si>
-  <si>
     <t>p value &lt; alpha</t>
   </si>
   <si>
-    <t>p value &gt; alpha but one or more beta percent change was greater than 20%</t>
-  </si>
-  <si>
     <t>p value &gt; alpha</t>
   </si>
   <si>
@@ -227,13 +230,13 @@
     <t>Linear</t>
   </si>
   <si>
-    <t>-416.0036</t>
+    <t>-371.1311</t>
   </si>
   <si>
     <t>First Order</t>
   </si>
   <si>
-    <t>-455.5784</t>
+    <t>-405.6378</t>
   </si>
   <si>
     <t>1.0</t>
@@ -245,84 +248,261 @@
     <t>Second Order</t>
   </si>
   <si>
-    <t>-469.3616</t>
-  </si>
-  <si>
-    <t>-415.1415</t>
-  </si>
-  <si>
-    <t>0.1892</t>
-  </si>
-  <si>
-    <t>-414.3682</t>
-  </si>
-  <si>
-    <t>0.0705</t>
+    <t>-412.9953</t>
+  </si>
+  <si>
+    <t>-369.5815</t>
+  </si>
+  <si>
+    <t>0.0783</t>
+  </si>
+  <si>
+    <t>-368.9652</t>
+  </si>
+  <si>
+    <t>0.0374</t>
   </si>
   <si>
     <t>-1</t>
   </si>
   <si>
-    <t>-416.2689</t>
-  </si>
-  <si>
-    <t>-726.5075</t>
-  </si>
-  <si>
-    <t>-635.4537</t>
-  </si>
-  <si>
-    <t>-480.1373</t>
-  </si>
-  <si>
-    <t>-436.5179</t>
-  </si>
-  <si>
-    <t>-415.3317</t>
-  </si>
-  <si>
-    <t>0.2464</t>
-  </si>
-  <si>
-    <t>-417.024</t>
-  </si>
-  <si>
-    <t>-417.6852</t>
+    <t>-371.1198</t>
+  </si>
+  <si>
+    <t>2, 1</t>
+  </si>
+  <si>
+    <t>-369.5429</t>
+  </si>
+  <si>
+    <t>0.0747</t>
+  </si>
+  <si>
+    <t>-623.4091</t>
+  </si>
+  <si>
+    <t>-554.5889</t>
+  </si>
+  <si>
+    <t>-415.9854</t>
+  </si>
+  <si>
+    <t>-385.9035</t>
+  </si>
+  <si>
+    <t>-367.1365</t>
+  </si>
+  <si>
+    <t>0.0047</t>
+  </si>
+  <si>
+    <t>-360.9658</t>
+  </si>
+  <si>
+    <t>0.0021</t>
+  </si>
+  <si>
+    <t>3, 1</t>
+  </si>
+  <si>
+    <t>-360.3131</t>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+  </si>
+  <si>
+    <t>-360.6144</t>
+  </si>
+  <si>
+    <t>-360.0905</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>-359.8431</t>
+  </si>
+  <si>
+    <t>0.7808</t>
+  </si>
+  <si>
+    <t>-360.2366</t>
+  </si>
+  <si>
+    <t>-359.9492</t>
+  </si>
+  <si>
+    <t>0.7503</t>
+  </si>
+  <si>
+    <t>-361.1297</t>
+  </si>
+  <si>
+    <t>-360.0634</t>
+  </si>
+  <si>
+    <t>0.3443</t>
+  </si>
+  <si>
+    <t>-362.1154</t>
   </si>
   <si>
     <t>-2</t>
   </si>
   <si>
-    <t>-904.5042</t>
-  </si>
-  <si>
-    <t>-760.7532</t>
-  </si>
-  <si>
-    <t>-580.4929</t>
-  </si>
-  <si>
-    <t>-476.8266</t>
-  </si>
-  <si>
-    <t>-420.8826</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>-430.1235</t>
+    <t>-360.5973</t>
+  </si>
+  <si>
+    <t>0.2191</t>
+  </si>
+  <si>
+    <t>-363.1721</t>
+  </si>
+  <si>
+    <t>0.0001</t>
+  </si>
+  <si>
+    <t>-361.6387</t>
+  </si>
+  <si>
+    <t>0.2158</t>
+  </si>
+  <si>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>-817.7924</t>
+  </si>
+  <si>
+    <t>-668.9128</t>
+  </si>
+  <si>
+    <t>-517.793</t>
+  </si>
+  <si>
+    <t>-447.5087</t>
+  </si>
+  <si>
+    <t>-364.716</t>
+  </si>
+  <si>
+    <t>0.0003</t>
+  </si>
+  <si>
+    <t>-355.0853</t>
+  </si>
+  <si>
+    <t>-368.7907</t>
+  </si>
+  <si>
+    <t>0.0305</t>
+  </si>
+  <si>
+    <t>-354.4179</t>
+  </si>
+  <si>
+    <t>-353.9548</t>
+  </si>
+  <si>
+    <t>-353.676</t>
+  </si>
+  <si>
+    <t>0.7567</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>-354.5331</t>
+  </si>
+  <si>
+    <t>-351.4909</t>
+  </si>
+  <si>
+    <t>0.0477</t>
   </si>
   <si>
     <t>Transformations</t>
   </si>
   <si>
+    <t>TeamNetR_-1</t>
+  </si>
+  <si>
+    <t>NetProtectionReceived2_3 | NetProtectionReceived2_1</t>
+  </si>
+  <si>
+    <t>NetProtectionReceived3_-1</t>
+  </si>
+  <si>
+    <t>NetControl1_2</t>
+  </si>
+  <si>
+    <t>NetControl2_3</t>
+  </si>
+  <si>
+    <t>NetControlReceived1_2</t>
+  </si>
+  <si>
+    <t>NetControlReceived2_-2</t>
+  </si>
+  <si>
+    <t>NetControlReceived3_-1</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond2_2 | NetScorePerSecond2_1</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond3_1 | NetScorePerSecond3_3</t>
+  </si>
+  <si>
+    <t>NetLeagueDivisionValue1_3</t>
+  </si>
+  <si>
+    <t>NetLeagueDivisionValue2_1 | NetLeagueDivisionValue2_3</t>
+  </si>
+  <si>
     <t>Interaction Terms</t>
   </si>
   <si>
     <t>Variables</t>
   </si>
   <si>
+    <t>EnemyRatioREX50_NetHealthShards</t>
+  </si>
+  <si>
+    <t>EnemyRatioREX50 x NetHealthShards</t>
+  </si>
+  <si>
+    <t>EnemyRatioREX50_NetProtectionReceived2_3 | EnemyRatioREX50_NetProtectionReceived2_1</t>
+  </si>
+  <si>
+    <t>EnemyRatioREX50 x NetProtectionReceived2</t>
+  </si>
+  <si>
+    <t>EnemyRatioREX50_NetControl1_2</t>
+  </si>
+  <si>
+    <t>EnemyRatioREX50 x NetControl1</t>
+  </si>
+  <si>
+    <t>EnemyRatioREX50_NetControl2_3</t>
+  </si>
+  <si>
+    <t>EnemyRatioREX50 x NetControl2</t>
+  </si>
+  <si>
+    <t>EnemyRatioREX50_NetScorePerSecond2_2 | EnemyRatioREX50_NetScorePerSecond2_1</t>
+  </si>
+  <si>
+    <t>EnemyRatioREX50 x NetScorePerSecond2</t>
+  </si>
+  <si>
+    <t>EnemyRatioREX50_NetScorePerSecond3_1 | EnemyRatioREX50_NetScorePerSecond3_3</t>
+  </si>
+  <si>
+    <t>EnemyRatioREX50 x NetScorePerSecond3</t>
+  </si>
+  <si>
     <t>NetHealthShards_NetOrbs</t>
   </si>
   <si>
@@ -341,16 +521,28 @@
     <t>NetHealthShards x NetScorePerSecond1</t>
   </si>
   <si>
-    <t>NetHealthShards_NetScorePerSecond2</t>
+    <t>NetHealthShards_NetScorePerSecond2_2 | NetHealthShards_NetScorePerSecond2_1</t>
   </si>
   <si>
     <t>NetHealthShards x NetScorePerSecond2</t>
   </si>
   <si>
-    <t>NetOrbs_NetDamageReceived3</t>
-  </si>
-  <si>
-    <t>NetOrbs x NetDamageReceived3</t>
+    <t>NetOrbs_NetProtectionReceived2_3 | NetOrbs_NetProtectionReceived2_1</t>
+  </si>
+  <si>
+    <t>NetOrbs x NetProtectionReceived2</t>
+  </si>
+  <si>
+    <t>NetOrbs_NetControl1_2</t>
+  </si>
+  <si>
+    <t>NetOrbs x NetControl1</t>
+  </si>
+  <si>
+    <t>TeamNetEX_NetControlReceived1_2</t>
+  </si>
+  <si>
+    <t>TeamNetEX x NetControlReceived1</t>
   </si>
   <si>
     <t>NetDamage3_NetProtection1</t>
@@ -359,46 +551,70 @@
     <t>NetDamage3 x NetProtection1</t>
   </si>
   <si>
-    <t>NetDamage3_NetScorePerSecond2</t>
-  </si>
-  <si>
-    <t>NetDamage3 x NetScorePerSecond2</t>
-  </si>
-  <si>
-    <t>NetProtection3_NetScorePerSecond1</t>
-  </si>
-  <si>
-    <t>NetProtection3 x NetScorePerSecond1</t>
-  </si>
-  <si>
-    <t>NetProtectionReceived1_NetControl2</t>
-  </si>
-  <si>
-    <t>NetProtectionReceived1 x NetControl2</t>
-  </si>
-  <si>
-    <t>NetProtectionReceived1_NetScorePerSecond1</t>
-  </si>
-  <si>
-    <t>NetProtectionReceived1 x NetScorePerSecond1</t>
-  </si>
-  <si>
-    <t>NetProtectionReceived1_NetScorePerSecond2</t>
-  </si>
-  <si>
-    <t>NetProtectionReceived1 x NetScorePerSecond2</t>
-  </si>
-  <si>
-    <t>NetProtectionReceived1_NetScorePerSecond3</t>
-  </si>
-  <si>
-    <t>NetProtectionReceived1 x NetScorePerSecond3</t>
-  </si>
-  <si>
-    <t>NetProtectionReceived2_NetDamageReceived2</t>
-  </si>
-  <si>
-    <t>NetProtectionReceived2 x NetDamageReceived2</t>
+    <t>NetDamage3_NetDamageReceived2</t>
+  </si>
+  <si>
+    <t>NetDamage3 x NetDamageReceived2</t>
+  </si>
+  <si>
+    <t>NetProtection1_NetDamageReceived1</t>
+  </si>
+  <si>
+    <t>NetProtection1 x NetDamageReceived1</t>
+  </si>
+  <si>
+    <t>NetControl2_3_NetScorePerSecond3_1 | NetControl2_3_NetScorePerSecond3_3</t>
+  </si>
+  <si>
+    <t>NetControl2 x NetScorePerSecond3</t>
+  </si>
+  <si>
+    <t>NetControlReceived2_-2_NetScorePerSecond1</t>
+  </si>
+  <si>
+    <t>NetControlReceived2 x NetScorePerSecond1</t>
+  </si>
+  <si>
+    <t>NetDamageReceived1_NetControl2_3</t>
+  </si>
+  <si>
+    <t>NetDamageReceived1 x NetControl2</t>
+  </si>
+  <si>
+    <t>NetDamageReceived1_NetScorePerSecond1</t>
+  </si>
+  <si>
+    <t>NetDamageReceived1 x NetScorePerSecond1</t>
+  </si>
+  <si>
+    <t>NetDamageReceived2_NetScorePerSecond2_2 | NetDamageReceived2_NetScorePerSecond2_1</t>
+  </si>
+  <si>
+    <t>NetDamageReceived2 x NetScorePerSecond2</t>
+  </si>
+  <si>
+    <t>NetDamageReceived2_NetScorePerSecond3_1 | NetDamageReceived2_NetScorePerSecond3_3</t>
+  </si>
+  <si>
+    <t>NetDamageReceived2 x NetScorePerSecond3</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond1_NetScorePerSecond2_2 | NetScorePerSecond1_NetScorePerSecond2_1</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond1 x NetScorePerSecond2</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond2_2_NetProtectionReceived2_3 | NetScorePerSecond2_2_NetProtectionReceived2_1 | NetScorePerSecond2_1_NetProtectionReceived2_3 | NetScorePerSecond2_1_NetProtectionReceived2_1</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond2 x NetProtectionReceived2</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond3_1_NetControlReceived1_2 | NetScorePerSecond3_3_NetControlReceived1_2</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond3 x NetControlReceived1</t>
   </si>
   <si>
     <t>Logistic Area Under Curve</t>
@@ -426,6 +642,102 @@
   </si>
   <si>
     <t>const</t>
+  </si>
+  <si>
+    <t>NetProtectionReceived2_3</t>
+  </si>
+  <si>
+    <t>NetProtectionReceived2_1</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond2_2</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond2_1</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond3_1</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond3_3</t>
+  </si>
+  <si>
+    <t>NetLeagueDivisionValue2_1</t>
+  </si>
+  <si>
+    <t>NetLeagueDivisionValue2_3</t>
+  </si>
+  <si>
+    <t>EnemyRatioREX50_NetProtectionReceived2_3</t>
+  </si>
+  <si>
+    <t>EnemyRatioREX50_NetProtectionReceived2_1</t>
+  </si>
+  <si>
+    <t>EnemyRatioREX50_NetScorePerSecond2_2</t>
+  </si>
+  <si>
+    <t>EnemyRatioREX50_NetScorePerSecond2_1</t>
+  </si>
+  <si>
+    <t>EnemyRatioREX50_NetScorePerSecond3_1</t>
+  </si>
+  <si>
+    <t>EnemyRatioREX50_NetScorePerSecond3_3</t>
+  </si>
+  <si>
+    <t>NetHealthShards_NetScorePerSecond2_2</t>
+  </si>
+  <si>
+    <t>NetHealthShards_NetScorePerSecond2_1</t>
+  </si>
+  <si>
+    <t>NetOrbs_NetProtectionReceived2_3</t>
+  </si>
+  <si>
+    <t>NetOrbs_NetProtectionReceived2_1</t>
+  </si>
+  <si>
+    <t>NetControl2_3_NetScorePerSecond3_1</t>
+  </si>
+  <si>
+    <t>NetControl2_3_NetScorePerSecond3_3</t>
+  </si>
+  <si>
+    <t>NetDamageReceived2_NetScorePerSecond2_2</t>
+  </si>
+  <si>
+    <t>NetDamageReceived2_NetScorePerSecond2_1</t>
+  </si>
+  <si>
+    <t>NetDamageReceived2_NetScorePerSecond3_1</t>
+  </si>
+  <si>
+    <t>NetDamageReceived2_NetScorePerSecond3_3</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond1_NetScorePerSecond2_2</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond1_NetScorePerSecond2_1</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond2_2_NetProtectionReceived2_3</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond2_2_NetProtectionReceived2_1</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond2_1_NetProtectionReceived2_3</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond2_1_NetProtectionReceived2_1</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond3_1_NetControlReceived1_2</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond3_3_NetControlReceived1_2</t>
   </si>
 </sst>
 </file>
@@ -910,7 +1222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>8998</v>
+        <v>9005</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
@@ -967,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>7771</v>
+        <v>7766</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
@@ -992,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>11198</v>
+        <v>11203</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
@@ -1006,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>5571</v>
+        <v>5568</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>11</v>
@@ -1028,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>11031</v>
+        <v>11037</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>6</v>
@@ -1042,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>5738</v>
+        <v>5734</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>7</v>
@@ -1067,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>10764</v>
+        <v>10760</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
@@ -1081,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>6005</v>
+        <v>6011</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>11</v>
@@ -1103,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>11243</v>
+        <v>11236</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>6</v>
@@ -1117,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>5526</v>
+        <v>5535</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>7</v>
@@ -1142,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>8475</v>
+        <v>8482</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
@@ -1156,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>8294</v>
+        <v>8289</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>11</v>
@@ -1318,7 +1630,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>-184.0033</v>
+        <v>-184.00575</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1334,7 +1646,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>204.58</v>
+        <v>204.4650550000001</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1355,7 +1667,7 @@
         <v>6</v>
       </c>
       <c r="E46" t="n">
-        <v>-1184.8782</v>
+        <v>-1181</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1363,7 +1675,7 @@
         <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>-172.2661</v>
+        <v>-172.266655</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1379,7 +1691,7 @@
         <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>176.02783</v>
+        <v>176.29097</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1408,7 +1720,7 @@
         <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>-157.0431</v>
+        <v>-157.10761</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1416,7 +1728,7 @@
         <v>9</v>
       </c>
       <c r="E54" t="n">
-        <v>25.75</v>
+        <v>25.42257000000007</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1424,7 +1736,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>193.3</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1453,7 +1765,7 @@
         <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>-145.5925</v>
+        <v>-145.30625</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1461,7 +1773,7 @@
         <v>9</v>
       </c>
       <c r="E60" t="n">
-        <v>0.2267000000000507</v>
+        <v>0.2456499999999835</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1469,7 +1781,7 @@
         <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>148</v>
+        <v>148.125</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1514,7 +1826,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>100.20001</v>
+        <v>100.19577</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -1588,7 +1900,7 @@
         <v>7</v>
       </c>
       <c r="E77" t="n">
-        <v>-73.8</v>
+        <v>-73.80000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -1633,7 +1945,7 @@
         <v>7</v>
       </c>
       <c r="E83" t="n">
-        <v>-67.200005</v>
+        <v>-67.059145</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -1641,7 +1953,7 @@
         <v>9</v>
       </c>
       <c r="E84" t="n">
-        <v>2.32501000000002</v>
+        <v>2.300000000000012</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -1649,7 +1961,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>69.59999000000001</v>
+        <v>69.59998999999999</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -1678,7 +1990,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>-61.77500000000001</v>
+        <v>-61.97</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -1694,7 +2006,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>68.84999999999999</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -1940,7 +2252,7 @@
         <v>6</v>
       </c>
       <c r="E124" t="n">
-        <v>-2147483620</v>
+        <v>-289</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -1948,7 +2260,7 @@
         <v>7</v>
       </c>
       <c r="E125" t="n">
-        <v>-39</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -1956,7 +2268,7 @@
         <v>9</v>
       </c>
       <c r="E126" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -1964,7 +2276,7 @@
         <v>10</v>
       </c>
       <c r="E127" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -1972,7 +2284,7 @@
         <v>11</v>
       </c>
       <c r="E128" t="n">
-        <v>2147483621</v>
+        <v>443</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -1985,7 +2297,7 @@
         <v>6</v>
       </c>
       <c r="E130" t="n">
-        <v>-361</v>
+        <v>-2147483620</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -1993,7 +2305,7 @@
         <v>7</v>
       </c>
       <c r="E131" t="n">
-        <v>-40</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -2009,7 +2321,7 @@
         <v>10</v>
       </c>
       <c r="E133" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -2017,7 +2329,7 @@
         <v>11</v>
       </c>
       <c r="E134" t="n">
-        <v>2147483619</v>
+        <v>2147483621</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -2030,7 +2342,7 @@
         <v>6</v>
       </c>
       <c r="E136" t="n">
-        <v>-2147483620</v>
+        <v>-361</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -2046,7 +2358,7 @@
         <v>9</v>
       </c>
       <c r="E138" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -2054,7 +2366,7 @@
         <v>10</v>
       </c>
       <c r="E139" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -2062,7 +2374,7 @@
         <v>11</v>
       </c>
       <c r="E140" t="n">
-        <v>2147483621</v>
+        <v>2147483619</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -2075,7 +2387,7 @@
         <v>6</v>
       </c>
       <c r="E142" t="n">
-        <v>-1115.6462</v>
+        <v>-2147483620</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -2083,7 +2395,7 @@
         <v>7</v>
       </c>
       <c r="E143" t="n">
-        <v>-161.95</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -2091,7 +2403,7 @@
         <v>9</v>
       </c>
       <c r="E144" t="n">
-        <v>-14.03496999999999</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -2099,7 +2411,7 @@
         <v>10</v>
       </c>
       <c r="E145" t="n">
-        <v>139</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -2107,7 +2419,7 @@
         <v>11</v>
       </c>
       <c r="E146" t="n">
-        <v>910.4549</v>
+        <v>2147483621</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -2120,7 +2432,7 @@
         <v>6</v>
       </c>
       <c r="E148" t="n">
-        <v>-1060.40338</v>
+        <v>-1115.6462</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -2128,7 +2440,7 @@
         <v>7</v>
       </c>
       <c r="E149" t="n">
-        <v>-147</v>
+        <v>-162</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -2136,7 +2448,7 @@
         <v>9</v>
       </c>
       <c r="E150" t="n">
-        <v>-15.80264000000011</v>
+        <v>-14.07587000000001</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -2144,7 +2456,7 @@
         <v>10</v>
       </c>
       <c r="E151" t="n">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -2152,7 +2464,7 @@
         <v>11</v>
       </c>
       <c r="E152" t="n">
-        <v>775.57886</v>
+        <v>910.4549</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -2165,7 +2477,7 @@
         <v>6</v>
       </c>
       <c r="E154" t="n">
-        <v>-805.230713</v>
+        <v>-1060.40338</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -2173,7 +2485,7 @@
         <v>7</v>
       </c>
       <c r="E155" t="n">
-        <v>-118.62</v>
+        <v>-147</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -2181,7 +2493,7 @@
         <v>9</v>
       </c>
       <c r="E156" t="n">
-        <v>-8.100000000000023</v>
+        <v>-15.80000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -2189,7 +2501,7 @@
         <v>10</v>
       </c>
       <c r="E157" t="n">
-        <v>103</v>
+        <v>122.334655</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -2197,7 +2509,7 @@
         <v>11</v>
       </c>
       <c r="E158" t="n">
-        <v>843.9</v>
+        <v>775.57886</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -2210,7 +2522,7 @@
         <v>6</v>
       </c>
       <c r="E160" t="n">
-        <v>-28.26273685906041</v>
+        <v>-805.230713</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -2218,7 +2530,7 @@
         <v>7</v>
       </c>
       <c r="E161" t="n">
-        <v>-6.053679653679656</v>
+        <v>-118.60675</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -2226,7 +2538,7 @@
         <v>9</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.8063230519480521</v>
+        <v>-8.159760000000034</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -2234,7 +2546,7 @@
         <v>10</v>
       </c>
       <c r="E163" t="n">
-        <v>5.522340942204955</v>
+        <v>103</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -2242,7 +2554,7 @@
         <v>11</v>
       </c>
       <c r="E164" t="n">
-        <v>25.93612075833185</v>
+        <v>843.9</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -2255,7 +2567,7 @@
         <v>6</v>
       </c>
       <c r="E166" t="n">
-        <v>-18.92804011904761</v>
+        <v>-21.92668885906041</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -2263,7 +2575,7 @@
         <v>7</v>
       </c>
       <c r="E167" t="n">
-        <v>-4.701773225031609</v>
+        <v>-6.00115090637785</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -2271,7 +2583,7 @@
         <v>9</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.540634382801664</v>
+        <v>-0.5357245750504163</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -2279,7 +2591,7 @@
         <v>10</v>
       </c>
       <c r="E169" t="n">
-        <v>4.276817936870335</v>
+        <v>5.677983897558346</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -2287,7 +2599,7 @@
         <v>11</v>
       </c>
       <c r="E170" t="n">
-        <v>19.2890528905289</v>
+        <v>28.63413335495237</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -2300,7 +2612,7 @@
         <v>6</v>
       </c>
       <c r="E172" t="n">
-        <v>-17.09456521739131</v>
+        <v>-17.68416635583737</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -2308,7 +2620,7 @@
         <v>7</v>
       </c>
       <c r="E173" t="n">
-        <v>-3.247185133526852</v>
+        <v>-4.68191445188931</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -2316,7 +2628,7 @@
         <v>9</v>
       </c>
       <c r="E174" t="n">
-        <v>-0.1980360065466447</v>
+        <v>-0.391013584117033</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -2324,7 +2636,7 @@
         <v>10</v>
       </c>
       <c r="E175" t="n">
-        <v>3.00587620879121</v>
+        <v>4.376263957924307</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -2332,7 +2644,7 @@
         <v>11</v>
       </c>
       <c r="E176" t="n">
-        <v>17.9048505882353</v>
+        <v>21.85928725073008</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -2345,7 +2657,7 @@
         <v>6</v>
       </c>
       <c r="E178" t="n">
-        <v>-18</v>
+        <v>-17.09456521739131</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -2353,7 +2665,7 @@
         <v>7</v>
       </c>
       <c r="E179" t="n">
-        <v>-2</v>
+        <v>-3.229572256258235</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -2361,7 +2673,7 @@
         <v>9</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>-0.09854457246816263</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -2369,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="E181" t="n">
-        <v>2</v>
+        <v>3.080054172983297</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -2377,7 +2689,7 @@
         <v>11</v>
       </c>
       <c r="E182" t="n">
-        <v>15</v>
+        <v>18.34291800356506</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -2390,7 +2702,7 @@
         <v>6</v>
       </c>
       <c r="E184" t="n">
-        <v>-14</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -2435,7 +2747,7 @@
         <v>6</v>
       </c>
       <c r="E190" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -2467,6 +2779,51 @@
         <v>11</v>
       </c>
       <c r="E194" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="D195" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="D196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="D197" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="D198" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="D199" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="D200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E200" t="n">
         <v>15</v>
       </c>
     </row>
@@ -2497,49 +2854,49 @@
   <sheetData>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9996433957828574</v>
+        <v>0.9998216431395668</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9996987772528761</v>
+        <v>0.9998498684581493</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="B17" t="n">
         <v>0.5</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9931700816258539</v>
+        <v>0.9950011108642525</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4752559002687518</v>
+        <v>0.6003763674586561</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7682926829268293</v>
+        <v>0.7684693816707411</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="F19" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2547,10 +2904,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="F20" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4600000000000002</v>
+        <v>0.5200000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2565,7 +2922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2579,50 +2936,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05740822289285158</v>
+        <v>-0.2212568037743637</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2375604595123922</v>
+        <v>-0.06626838061812318</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8470629734338022</v>
+        <v>0.3394015414048399</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08839884962835141</v>
+        <v>1.087573547067871</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05557643452914268</v>
+        <v>0.03951784829628029</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2630,7 +2987,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0006799646639718248</v>
+        <v>0.001013083465294242</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2638,7 +2995,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01867096151137417</v>
+        <v>0.02224066726977837</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2646,7 +3003,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01794693586864133</v>
+        <v>0.02162544552627704</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2654,7 +3011,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01835034344818358</v>
+        <v>0.02241579676924273</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2662,183 +3019,471 @@
         <v>27</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01021371064788147</v>
+        <v>0.01175277928857545</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>0.008297346314133775</v>
+        <v>-0.0374522876818271</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>0.005385351681085148</v>
+        <v>-0.0294333868330767</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B14" t="n">
-        <v>0.005417781843056827</v>
+        <v>-0.024299168090362</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.03138665778041514</v>
+        <v>-0.376607040663012</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.02753157578621048</v>
+        <v>0.6121528730983493</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.02023098607081265</v>
+        <v>-8.576964568243555e-09</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2352576361486383</v>
+        <v>0.007752243244976659</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0868832020594698</v>
+        <v>0.3501025758941654</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.2044059307085969</v>
+        <v>-1.678071601855315e-05</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0127559199963007</v>
+        <v>3.146250121083963e-07</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0003184734074971694</v>
+        <v>1.460698453178011e-05</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="B23" t="n">
-        <v>0.009981864414313589</v>
+        <v>1.16918140736713</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.01036064865792353</v>
+        <v>-0.6633151071924147</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0005506224096152665</v>
+        <v>0.003245395827186677</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="B26" t="n">
-        <v>2.849894932789256e-06</v>
+        <v>-0.1423507036076853</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0001281596048191841</v>
+        <v>-0.2752663516157593</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.0001352790807159068</v>
+        <v>0.002358048624754866</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="B29" t="n">
-        <v>-3.703510568466678e-05</v>
+        <v>0.0014919300603493</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.000326195810508003</v>
+        <v>-0.1929982377494592</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0004670840353120301</v>
+        <v>0.004035028174075939</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.0006358191524934405</v>
+        <v>-0.01512310425128476</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="B33" t="n">
-        <v>-7.505075425697181e-06</v>
+        <v>9.594986268258719e-08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.005678445746116324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.861460105355193e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-3.779413224498602e-07</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.01916026386101056</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.1176537764354828</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.04605549146898306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.003418907361307871</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.01781015778055581</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.0002571642223227867</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.01727088726334689</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.002087996254189593</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.0121740971604412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-2.075290845161327e-08</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.001253851389750554</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-1.202872646518962e-05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7.004289432279353e-06</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4.325882209738966e-06</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-5.699607865979964e-06</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.539116440981317e-06</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-3.282561533171464e-08</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>225</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-1.109495711236971e-09</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.2344174434274998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-1.173201418659812e-09</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.0003617302739416665</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>226</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-9.389120271132865e-05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>227</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.0002617143236493163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>228</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.0008196898562095606</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-9.050549669782163e-06</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.002333272211167583</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>231</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.003118920219918224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-3.495148033140686e-10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>233</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0001500577113317363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>234</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-3.008737154399829e-09</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.0005970188549249164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>236</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5.81140147286008e-07</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>237</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-4.577884736471433e-07</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +3497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2866,10 +3511,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="6" t="n"/>
       <c r="D1" s="6" t="n"/>
@@ -2884,7 +3529,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>0.01007060620724448</v>
+        <v>0.01017254682095666</v>
       </c>
       <c r="C2" s="6" t="n"/>
       <c r="D2" s="6" t="n"/>
@@ -2899,7 +3544,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>2.598313387310894e-62</v>
+        <v>1.109544008128496e-62</v>
       </c>
       <c r="C3" s="6" t="n"/>
       <c r="D3" s="6" t="n"/>
@@ -2914,7 +3559,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>1.548443011367406e-54</v>
+        <v>1.909576804796935e-54</v>
       </c>
       <c r="C4" s="6" t="n"/>
       <c r="D4" s="6" t="n"/>
@@ -2929,7 +3574,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>1.530888826850119e-85</v>
+        <v>2.083214358443181e-85</v>
       </c>
       <c r="C5" s="6" t="n"/>
       <c r="D5" s="6" t="n"/>
@@ -2944,7 +3589,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>3.825983449708592e-33</v>
+        <v>2.298624843800783e-33</v>
       </c>
       <c r="C6" s="6" t="n"/>
       <c r="D6" s="6" t="n"/>
@@ -2974,7 +3619,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="6" t="n">
-        <v>1.875685524490729e-165</v>
+        <v>2.299538322010003e-165</v>
       </c>
       <c r="C8" s="6" t="n"/>
       <c r="D8" s="6" t="n"/>
@@ -2989,7 +3634,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="6" t="n">
-        <v>7.131584424270053e-193</v>
+        <v>2.219162584758807e-193</v>
       </c>
       <c r="C9" s="6" t="n"/>
       <c r="D9" s="6" t="n"/>
@@ -3019,7 +3664,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>1.283386680468291e-209</v>
+        <v>9.213433980898149e-209</v>
       </c>
       <c r="C11" s="6" t="n"/>
       <c r="D11" s="6" t="n"/>
@@ -3079,7 +3724,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>9.145958191919359e-08</v>
+        <v>1.390894971105209e-07</v>
       </c>
       <c r="C15" s="6" t="n"/>
       <c r="D15" s="6" t="n"/>
@@ -3094,7 +3739,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>2.104191359421156e-44</v>
+        <v>1.538649897265257e-44</v>
       </c>
       <c r="C16" s="6" t="n"/>
       <c r="D16" s="6" t="n"/>
@@ -3109,7 +3754,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>4.470959762014357e-140</v>
+        <v>1.800840539456096e-141</v>
       </c>
       <c r="C17" s="6" t="n"/>
       <c r="D17" s="6" t="n"/>
@@ -3124,7 +3769,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="6" t="n">
-        <v>1.345564788517057e-14</v>
+        <v>1.304283273842196e-14</v>
       </c>
       <c r="C18" s="6" t="n"/>
       <c r="D18" s="6" t="n"/>
@@ -3139,7 +3784,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="6" t="n">
-        <v>5.97451436996786e-216</v>
+        <v>1.719012518888119e-216</v>
       </c>
       <c r="C19" s="6" t="n"/>
       <c r="D19" s="6" t="n"/>
@@ -3169,7 +3814,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="6" t="n">
-        <v>1.46230236059049e-18</v>
+        <v>6.767650626606804e-19</v>
       </c>
       <c r="C21" s="6" t="n"/>
       <c r="D21" s="6" t="n"/>
@@ -3184,7 +3829,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="6" t="n">
-        <v>4.739483630990747e-227</v>
+        <v>8.654465959095702e-228</v>
       </c>
       <c r="C22" s="6" t="n"/>
       <c r="D22" s="6" t="n"/>
@@ -3229,7 +3874,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="6" t="n">
-        <v>2.707905318554046e-186</v>
+        <v>3.725876499135185e-188</v>
       </c>
       <c r="C25" s="6" t="n"/>
       <c r="D25" s="6" t="n"/>
@@ -3244,7 +3889,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="6" t="n">
-        <v>0.0624694329112111</v>
+        <v>3.422742876618105e-10</v>
       </c>
       <c r="C26" s="6" t="n"/>
       <c r="D26" s="6" t="n"/>
@@ -3256,10 +3901,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="6" t="n">
-        <v>0</v>
+        <v>0.06280004133902209</v>
       </c>
       <c r="C27" s="6" t="n"/>
       <c r="D27" s="6" t="n"/>
@@ -3349,7 +3994,7 @@
         <v>44</v>
       </c>
       <c r="B33" s="6" t="n">
-        <v>8.584700250727061e-61</v>
+        <v>0</v>
       </c>
       <c r="C33" s="6" t="n"/>
       <c r="D33" s="6" t="n"/>
@@ -3364,7 +4009,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="6" t="n">
-        <v>3.251749648145939e-69</v>
+        <v>1.148316782243316e-60</v>
       </c>
       <c r="C34" s="6" t="n"/>
       <c r="D34" s="6" t="n"/>
@@ -3379,7 +4024,7 @@
         <v>46</v>
       </c>
       <c r="B35" s="6" t="n">
-        <v>1.917726698613452e-39</v>
+        <v>3.334864398847485e-69</v>
       </c>
       <c r="C35" s="6" t="n"/>
       <c r="D35" s="6" t="n"/>
@@ -3390,8 +4035,12 @@
       <c r="I35" s="6" t="n"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="6" t="n"/>
-      <c r="B36" s="6" t="n"/>
+      <c r="A36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="6" t="n">
+        <v>2.156962359841192e-39</v>
+      </c>
       <c r="C36" s="6" t="n"/>
       <c r="D36" s="6" t="n"/>
       <c r="E36" s="6" t="n"/>
@@ -3608,6 +4257,204 @@
       <c r="G55" s="6" t="n"/>
       <c r="H55" s="6" t="n"/>
       <c r="I55" s="6" t="n"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="6" t="n"/>
+      <c r="D56" s="6" t="n"/>
+      <c r="E56" s="6" t="n"/>
+      <c r="F56" s="6" t="n"/>
+      <c r="G56" s="6" t="n"/>
+      <c r="H56" s="6" t="n"/>
+      <c r="I56" s="6" t="n"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="6" t="n"/>
+      <c r="D57" s="6" t="n"/>
+      <c r="E57" s="6" t="n"/>
+      <c r="F57" s="6" t="n"/>
+      <c r="G57" s="6" t="n"/>
+      <c r="H57" s="6" t="n"/>
+      <c r="I57" s="6" t="n"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="6" t="n"/>
+      <c r="D58" s="6" t="n"/>
+      <c r="E58" s="6" t="n"/>
+      <c r="F58" s="6" t="n"/>
+      <c r="G58" s="6" t="n"/>
+      <c r="H58" s="6" t="n"/>
+      <c r="I58" s="6" t="n"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="C59" s="6" t="n"/>
+      <c r="D59" s="6" t="n"/>
+      <c r="E59" s="6" t="n"/>
+      <c r="F59" s="6" t="n"/>
+      <c r="G59" s="6" t="n"/>
+      <c r="H59" s="6" t="n"/>
+      <c r="I59" s="6" t="n"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="6" t="n"/>
+      <c r="B60" s="6" t="n"/>
+      <c r="C60" s="6" t="n"/>
+      <c r="D60" s="6" t="n"/>
+      <c r="E60" s="6" t="n"/>
+      <c r="F60" s="6" t="n"/>
+      <c r="G60" s="6" t="n"/>
+      <c r="H60" s="6" t="n"/>
+      <c r="I60" s="6" t="n"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="6" t="n"/>
+      <c r="B61" s="6" t="n"/>
+      <c r="C61" s="6" t="n"/>
+      <c r="D61" s="6" t="n"/>
+      <c r="E61" s="6" t="n"/>
+      <c r="F61" s="6" t="n"/>
+      <c r="G61" s="6" t="n"/>
+      <c r="H61" s="6" t="n"/>
+      <c r="I61" s="6" t="n"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="6" t="n"/>
+      <c r="B62" s="6" t="n"/>
+      <c r="C62" s="6" t="n"/>
+      <c r="D62" s="6" t="n"/>
+      <c r="E62" s="6" t="n"/>
+      <c r="F62" s="6" t="n"/>
+      <c r="G62" s="6" t="n"/>
+      <c r="H62" s="6" t="n"/>
+      <c r="I62" s="6" t="n"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="6" t="n"/>
+      <c r="B63" s="6" t="n"/>
+      <c r="C63" s="6" t="n"/>
+      <c r="D63" s="6" t="n"/>
+      <c r="E63" s="6" t="n"/>
+      <c r="F63" s="6" t="n"/>
+      <c r="G63" s="6" t="n"/>
+      <c r="H63" s="6" t="n"/>
+      <c r="I63" s="6" t="n"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="6" t="n"/>
+      <c r="B64" s="6" t="n"/>
+      <c r="C64" s="6" t="n"/>
+      <c r="D64" s="6" t="n"/>
+      <c r="E64" s="6" t="n"/>
+      <c r="F64" s="6" t="n"/>
+      <c r="G64" s="6" t="n"/>
+      <c r="H64" s="6" t="n"/>
+      <c r="I64" s="6" t="n"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="6" t="n"/>
+      <c r="B65" s="6" t="n"/>
+      <c r="C65" s="6" t="n"/>
+      <c r="D65" s="6" t="n"/>
+      <c r="E65" s="6" t="n"/>
+      <c r="F65" s="6" t="n"/>
+      <c r="G65" s="6" t="n"/>
+      <c r="H65" s="6" t="n"/>
+      <c r="I65" s="6" t="n"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="6" t="n"/>
+      <c r="B66" s="6" t="n"/>
+      <c r="C66" s="6" t="n"/>
+      <c r="D66" s="6" t="n"/>
+      <c r="E66" s="6" t="n"/>
+      <c r="F66" s="6" t="n"/>
+      <c r="G66" s="6" t="n"/>
+      <c r="H66" s="6" t="n"/>
+      <c r="I66" s="6" t="n"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="6" t="n"/>
+      <c r="B67" s="6" t="n"/>
+      <c r="C67" s="6" t="n"/>
+      <c r="D67" s="6" t="n"/>
+      <c r="E67" s="6" t="n"/>
+      <c r="F67" s="6" t="n"/>
+      <c r="G67" s="6" t="n"/>
+      <c r="H67" s="6" t="n"/>
+      <c r="I67" s="6" t="n"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="6" t="n"/>
+      <c r="B68" s="6" t="n"/>
+      <c r="C68" s="6" t="n"/>
+      <c r="D68" s="6" t="n"/>
+      <c r="E68" s="6" t="n"/>
+      <c r="F68" s="6" t="n"/>
+      <c r="G68" s="6" t="n"/>
+      <c r="H68" s="6" t="n"/>
+      <c r="I68" s="6" t="n"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="6" t="n"/>
+      <c r="B69" s="6" t="n"/>
+      <c r="C69" s="6" t="n"/>
+      <c r="D69" s="6" t="n"/>
+      <c r="E69" s="6" t="n"/>
+      <c r="F69" s="6" t="n"/>
+      <c r="G69" s="6" t="n"/>
+      <c r="H69" s="6" t="n"/>
+      <c r="I69" s="6" t="n"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="6" t="n"/>
+      <c r="B70" s="6" t="n"/>
+      <c r="C70" s="6" t="n"/>
+      <c r="D70" s="6" t="n"/>
+      <c r="E70" s="6" t="n"/>
+      <c r="F70" s="6" t="n"/>
+      <c r="G70" s="6" t="n"/>
+      <c r="H70" s="6" t="n"/>
+      <c r="I70" s="6" t="n"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="6" t="n"/>
+      <c r="B71" s="6" t="n"/>
+      <c r="C71" s="6" t="n"/>
+      <c r="D71" s="6" t="n"/>
+      <c r="E71" s="6" t="n"/>
+      <c r="F71" s="6" t="n"/>
+      <c r="G71" s="6" t="n"/>
+      <c r="H71" s="6" t="n"/>
+      <c r="I71" s="6" t="n"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="6" t="n"/>
+      <c r="B72" s="6" t="n"/>
+      <c r="C72" s="6" t="n"/>
+      <c r="D72" s="6" t="n"/>
+      <c r="E72" s="6" t="n"/>
+      <c r="F72" s="6" t="n"/>
+      <c r="G72" s="6" t="n"/>
+      <c r="H72" s="6" t="n"/>
+      <c r="I72" s="6" t="n"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="6" t="n"/>
+      <c r="B73" s="6" t="n"/>
+      <c r="C73" s="6" t="n"/>
+      <c r="D73" s="6" t="n"/>
+      <c r="E73" s="6" t="n"/>
+      <c r="F73" s="6" t="n"/>
+      <c r="G73" s="6" t="n"/>
+      <c r="H73" s="6" t="n"/>
+      <c r="I73" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3620,7 +4467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3634,10 +4481,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="6" t="n"/>
       <c r="D1" s="6" t="n"/>
@@ -3652,7 +4499,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>0.6833536389127601</v>
+        <v>0.6918210653900752</v>
       </c>
       <c r="C2" s="6" t="n"/>
       <c r="D2" s="6" t="n"/>
@@ -3664,10 +4511,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>0.4024067768027798</v>
+        <v>0.4041325417917671</v>
       </c>
       <c r="C3" s="6" t="n"/>
       <c r="D3" s="6" t="n"/>
@@ -3679,10 +4526,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>0.8258636538566264</v>
+        <v>0.8242016021275392</v>
       </c>
       <c r="C4" s="6" t="n"/>
       <c r="D4" s="6" t="n"/>
@@ -4252,6 +5099,204 @@
       <c r="G55" s="6" t="n"/>
       <c r="H55" s="6" t="n"/>
       <c r="I55" s="6" t="n"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="6" t="n"/>
+      <c r="D56" s="6" t="n"/>
+      <c r="E56" s="6" t="n"/>
+      <c r="F56" s="6" t="n"/>
+      <c r="G56" s="6" t="n"/>
+      <c r="H56" s="6" t="n"/>
+      <c r="I56" s="6" t="n"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="6" t="n"/>
+      <c r="D57" s="6" t="n"/>
+      <c r="E57" s="6" t="n"/>
+      <c r="F57" s="6" t="n"/>
+      <c r="G57" s="6" t="n"/>
+      <c r="H57" s="6" t="n"/>
+      <c r="I57" s="6" t="n"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="6" t="n"/>
+      <c r="D58" s="6" t="n"/>
+      <c r="E58" s="6" t="n"/>
+      <c r="F58" s="6" t="n"/>
+      <c r="G58" s="6" t="n"/>
+      <c r="H58" s="6" t="n"/>
+      <c r="I58" s="6" t="n"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="C59" s="6" t="n"/>
+      <c r="D59" s="6" t="n"/>
+      <c r="E59" s="6" t="n"/>
+      <c r="F59" s="6" t="n"/>
+      <c r="G59" s="6" t="n"/>
+      <c r="H59" s="6" t="n"/>
+      <c r="I59" s="6" t="n"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="6" t="n"/>
+      <c r="B60" s="6" t="n"/>
+      <c r="C60" s="6" t="n"/>
+      <c r="D60" s="6" t="n"/>
+      <c r="E60" s="6" t="n"/>
+      <c r="F60" s="6" t="n"/>
+      <c r="G60" s="6" t="n"/>
+      <c r="H60" s="6" t="n"/>
+      <c r="I60" s="6" t="n"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="6" t="n"/>
+      <c r="B61" s="6" t="n"/>
+      <c r="C61" s="6" t="n"/>
+      <c r="D61" s="6" t="n"/>
+      <c r="E61" s="6" t="n"/>
+      <c r="F61" s="6" t="n"/>
+      <c r="G61" s="6" t="n"/>
+      <c r="H61" s="6" t="n"/>
+      <c r="I61" s="6" t="n"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="6" t="n"/>
+      <c r="B62" s="6" t="n"/>
+      <c r="C62" s="6" t="n"/>
+      <c r="D62" s="6" t="n"/>
+      <c r="E62" s="6" t="n"/>
+      <c r="F62" s="6" t="n"/>
+      <c r="G62" s="6" t="n"/>
+      <c r="H62" s="6" t="n"/>
+      <c r="I62" s="6" t="n"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="6" t="n"/>
+      <c r="B63" s="6" t="n"/>
+      <c r="C63" s="6" t="n"/>
+      <c r="D63" s="6" t="n"/>
+      <c r="E63" s="6" t="n"/>
+      <c r="F63" s="6" t="n"/>
+      <c r="G63" s="6" t="n"/>
+      <c r="H63" s="6" t="n"/>
+      <c r="I63" s="6" t="n"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="6" t="n"/>
+      <c r="B64" s="6" t="n"/>
+      <c r="C64" s="6" t="n"/>
+      <c r="D64" s="6" t="n"/>
+      <c r="E64" s="6" t="n"/>
+      <c r="F64" s="6" t="n"/>
+      <c r="G64" s="6" t="n"/>
+      <c r="H64" s="6" t="n"/>
+      <c r="I64" s="6" t="n"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="6" t="n"/>
+      <c r="B65" s="6" t="n"/>
+      <c r="C65" s="6" t="n"/>
+      <c r="D65" s="6" t="n"/>
+      <c r="E65" s="6" t="n"/>
+      <c r="F65" s="6" t="n"/>
+      <c r="G65" s="6" t="n"/>
+      <c r="H65" s="6" t="n"/>
+      <c r="I65" s="6" t="n"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="6" t="n"/>
+      <c r="B66" s="6" t="n"/>
+      <c r="C66" s="6" t="n"/>
+      <c r="D66" s="6" t="n"/>
+      <c r="E66" s="6" t="n"/>
+      <c r="F66" s="6" t="n"/>
+      <c r="G66" s="6" t="n"/>
+      <c r="H66" s="6" t="n"/>
+      <c r="I66" s="6" t="n"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="6" t="n"/>
+      <c r="B67" s="6" t="n"/>
+      <c r="C67" s="6" t="n"/>
+      <c r="D67" s="6" t="n"/>
+      <c r="E67" s="6" t="n"/>
+      <c r="F67" s="6" t="n"/>
+      <c r="G67" s="6" t="n"/>
+      <c r="H67" s="6" t="n"/>
+      <c r="I67" s="6" t="n"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="6" t="n"/>
+      <c r="B68" s="6" t="n"/>
+      <c r="C68" s="6" t="n"/>
+      <c r="D68" s="6" t="n"/>
+      <c r="E68" s="6" t="n"/>
+      <c r="F68" s="6" t="n"/>
+      <c r="G68" s="6" t="n"/>
+      <c r="H68" s="6" t="n"/>
+      <c r="I68" s="6" t="n"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="6" t="n"/>
+      <c r="B69" s="6" t="n"/>
+      <c r="C69" s="6" t="n"/>
+      <c r="D69" s="6" t="n"/>
+      <c r="E69" s="6" t="n"/>
+      <c r="F69" s="6" t="n"/>
+      <c r="G69" s="6" t="n"/>
+      <c r="H69" s="6" t="n"/>
+      <c r="I69" s="6" t="n"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="6" t="n"/>
+      <c r="B70" s="6" t="n"/>
+      <c r="C70" s="6" t="n"/>
+      <c r="D70" s="6" t="n"/>
+      <c r="E70" s="6" t="n"/>
+      <c r="F70" s="6" t="n"/>
+      <c r="G70" s="6" t="n"/>
+      <c r="H70" s="6" t="n"/>
+      <c r="I70" s="6" t="n"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="6" t="n"/>
+      <c r="B71" s="6" t="n"/>
+      <c r="C71" s="6" t="n"/>
+      <c r="D71" s="6" t="n"/>
+      <c r="E71" s="6" t="n"/>
+      <c r="F71" s="6" t="n"/>
+      <c r="G71" s="6" t="n"/>
+      <c r="H71" s="6" t="n"/>
+      <c r="I71" s="6" t="n"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="6" t="n"/>
+      <c r="B72" s="6" t="n"/>
+      <c r="C72" s="6" t="n"/>
+      <c r="D72" s="6" t="n"/>
+      <c r="E72" s="6" t="n"/>
+      <c r="F72" s="6" t="n"/>
+      <c r="G72" s="6" t="n"/>
+      <c r="H72" s="6" t="n"/>
+      <c r="I72" s="6" t="n"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="6" t="n"/>
+      <c r="B73" s="6" t="n"/>
+      <c r="C73" s="6" t="n"/>
+      <c r="D73" s="6" t="n"/>
+      <c r="E73" s="6" t="n"/>
+      <c r="F73" s="6" t="n"/>
+      <c r="G73" s="6" t="n"/>
+      <c r="H73" s="6" t="n"/>
+      <c r="I73" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4264,7 +5309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4281,19 +5326,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="6" t="n"/>
       <c r="G1" s="6" t="n"/>
@@ -4305,16 +5350,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="6" t="n"/>
@@ -4326,16 +5371,16 @@
         <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="6" t="n"/>
@@ -4347,16 +5392,16 @@
         <v>15</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="6" t="n"/>
@@ -4368,16 +5413,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F5" s="6" t="n"/>
       <c r="G5" s="6" t="n"/>
@@ -4389,16 +5434,16 @@
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="F6" s="6" t="n"/>
       <c r="G6" s="6" t="n"/>
@@ -4410,16 +5455,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F7" s="6" t="n"/>
       <c r="G7" s="6" t="n"/>
@@ -4431,16 +5476,16 @@
         <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" s="6" t="n"/>
       <c r="G8" s="6" t="n"/>
@@ -4452,16 +5497,16 @@
         <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="F9" s="6" t="n"/>
       <c r="G9" s="6" t="n"/>
@@ -4473,16 +5518,16 @@
         <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="6" t="n"/>
       <c r="G10" s="6" t="n"/>
@@ -4494,16 +5539,16 @@
         <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F11" s="6" t="n"/>
       <c r="G11" s="6" t="n"/>
@@ -4515,16 +5560,16 @@
         <v>21</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="F12" s="6" t="n"/>
       <c r="G12" s="6" t="n"/>
@@ -4536,16 +5581,16 @@
         <v>22</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="F13" s="6" t="n"/>
       <c r="G13" s="6" t="n"/>
@@ -4557,16 +5602,16 @@
         <v>23</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F14" s="6" t="n"/>
       <c r="G14" s="6" t="n"/>
@@ -4578,16 +5623,16 @@
         <v>24</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F15" s="6" t="n"/>
       <c r="G15" s="6" t="n"/>
@@ -4599,16 +5644,16 @@
         <v>25</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F16" s="6" t="n"/>
       <c r="G16" s="6" t="n"/>
@@ -4620,16 +5665,16 @@
         <v>26</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F17" s="6" t="n"/>
       <c r="G17" s="6" t="n"/>
@@ -4641,16 +5686,16 @@
         <v>27</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F18" s="6" t="n"/>
       <c r="G18" s="6" t="n"/>
@@ -4662,16 +5707,16 @@
         <v>28</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F19" s="6" t="n"/>
       <c r="G19" s="6" t="n"/>
@@ -4683,16 +5728,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F20" s="6" t="n"/>
       <c r="G20" s="6" t="n"/>
@@ -4704,16 +5749,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F21" s="6" t="n"/>
       <c r="G21" s="6" t="n"/>
@@ -4725,16 +5770,16 @@
         <v>31</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22" s="6" t="n"/>
       <c r="G22" s="6" t="n"/>
@@ -4746,16 +5791,16 @@
         <v>32</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="F23" s="6" t="n"/>
       <c r="G23" s="6" t="n"/>
@@ -4767,16 +5812,16 @@
         <v>33</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F24" s="6" t="n"/>
       <c r="G24" s="6" t="n"/>
@@ -4788,10 +5833,10 @@
         <v>34</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>58</v>
@@ -4809,16 +5854,16 @@
         <v>35</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F26" s="6" t="n"/>
       <c r="G26" s="6" t="n"/>
@@ -4827,19 +5872,19 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="F27" s="6" t="n"/>
       <c r="G27" s="6" t="n"/>
@@ -4851,16 +5896,16 @@
         <v>39</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28" s="6" t="n"/>
       <c r="G28" s="6" t="n"/>
@@ -4872,16 +5917,16 @@
         <v>40</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F29" s="6" t="n"/>
       <c r="G29" s="6" t="n"/>
@@ -4893,16 +5938,16 @@
         <v>41</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F30" s="6" t="n"/>
       <c r="G30" s="6" t="n"/>
@@ -4914,16 +5959,16 @@
         <v>42</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F31" s="6" t="n"/>
       <c r="G31" s="6" t="n"/>
@@ -4935,16 +5980,16 @@
         <v>43</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F32" s="6" t="n"/>
       <c r="G32" s="6" t="n"/>
@@ -4956,16 +6001,16 @@
         <v>44</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F33" s="6" t="n"/>
       <c r="G33" s="6" t="n"/>
@@ -4977,16 +6022,16 @@
         <v>45</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F34" s="6" t="n"/>
       <c r="G34" s="6" t="n"/>
@@ -4998,16 +6043,16 @@
         <v>46</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F35" s="6" t="n"/>
       <c r="G35" s="6" t="n"/>
@@ -5015,11 +6060,21 @@
       <c r="I35" s="6" t="n"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="6" t="n"/>
-      <c r="B36" s="6" t="n"/>
-      <c r="C36" s="6" t="n"/>
-      <c r="D36" s="6" t="n"/>
-      <c r="E36" s="6" t="n"/>
+      <c r="A36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="F36" s="6" t="n"/>
       <c r="G36" s="6" t="n"/>
       <c r="H36" s="6" t="n"/>
@@ -5233,6 +6288,204 @@
       <c r="G55" s="6" t="n"/>
       <c r="H55" s="6" t="n"/>
       <c r="I55" s="6" t="n"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="6" t="n"/>
+      <c r="D56" s="6" t="n"/>
+      <c r="E56" s="6" t="n"/>
+      <c r="F56" s="6" t="n"/>
+      <c r="G56" s="6" t="n"/>
+      <c r="H56" s="6" t="n"/>
+      <c r="I56" s="6" t="n"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="6" t="n"/>
+      <c r="D57" s="6" t="n"/>
+      <c r="E57" s="6" t="n"/>
+      <c r="F57" s="6" t="n"/>
+      <c r="G57" s="6" t="n"/>
+      <c r="H57" s="6" t="n"/>
+      <c r="I57" s="6" t="n"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="6" t="n"/>
+      <c r="D58" s="6" t="n"/>
+      <c r="E58" s="6" t="n"/>
+      <c r="F58" s="6" t="n"/>
+      <c r="G58" s="6" t="n"/>
+      <c r="H58" s="6" t="n"/>
+      <c r="I58" s="6" t="n"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="C59" s="6" t="n"/>
+      <c r="D59" s="6" t="n"/>
+      <c r="E59" s="6" t="n"/>
+      <c r="F59" s="6" t="n"/>
+      <c r="G59" s="6" t="n"/>
+      <c r="H59" s="6" t="n"/>
+      <c r="I59" s="6" t="n"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="6" t="n"/>
+      <c r="B60" s="6" t="n"/>
+      <c r="C60" s="6" t="n"/>
+      <c r="D60" s="6" t="n"/>
+      <c r="E60" s="6" t="n"/>
+      <c r="F60" s="6" t="n"/>
+      <c r="G60" s="6" t="n"/>
+      <c r="H60" s="6" t="n"/>
+      <c r="I60" s="6" t="n"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="6" t="n"/>
+      <c r="B61" s="6" t="n"/>
+      <c r="C61" s="6" t="n"/>
+      <c r="D61" s="6" t="n"/>
+      <c r="E61" s="6" t="n"/>
+      <c r="F61" s="6" t="n"/>
+      <c r="G61" s="6" t="n"/>
+      <c r="H61" s="6" t="n"/>
+      <c r="I61" s="6" t="n"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="6" t="n"/>
+      <c r="B62" s="6" t="n"/>
+      <c r="C62" s="6" t="n"/>
+      <c r="D62" s="6" t="n"/>
+      <c r="E62" s="6" t="n"/>
+      <c r="F62" s="6" t="n"/>
+      <c r="G62" s="6" t="n"/>
+      <c r="H62" s="6" t="n"/>
+      <c r="I62" s="6" t="n"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="6" t="n"/>
+      <c r="B63" s="6" t="n"/>
+      <c r="C63" s="6" t="n"/>
+      <c r="D63" s="6" t="n"/>
+      <c r="E63" s="6" t="n"/>
+      <c r="F63" s="6" t="n"/>
+      <c r="G63" s="6" t="n"/>
+      <c r="H63" s="6" t="n"/>
+      <c r="I63" s="6" t="n"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="6" t="n"/>
+      <c r="B64" s="6" t="n"/>
+      <c r="C64" s="6" t="n"/>
+      <c r="D64" s="6" t="n"/>
+      <c r="E64" s="6" t="n"/>
+      <c r="F64" s="6" t="n"/>
+      <c r="G64" s="6" t="n"/>
+      <c r="H64" s="6" t="n"/>
+      <c r="I64" s="6" t="n"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="6" t="n"/>
+      <c r="B65" s="6" t="n"/>
+      <c r="C65" s="6" t="n"/>
+      <c r="D65" s="6" t="n"/>
+      <c r="E65" s="6" t="n"/>
+      <c r="F65" s="6" t="n"/>
+      <c r="G65" s="6" t="n"/>
+      <c r="H65" s="6" t="n"/>
+      <c r="I65" s="6" t="n"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="6" t="n"/>
+      <c r="B66" s="6" t="n"/>
+      <c r="C66" s="6" t="n"/>
+      <c r="D66" s="6" t="n"/>
+      <c r="E66" s="6" t="n"/>
+      <c r="F66" s="6" t="n"/>
+      <c r="G66" s="6" t="n"/>
+      <c r="H66" s="6" t="n"/>
+      <c r="I66" s="6" t="n"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="6" t="n"/>
+      <c r="B67" s="6" t="n"/>
+      <c r="C67" s="6" t="n"/>
+      <c r="D67" s="6" t="n"/>
+      <c r="E67" s="6" t="n"/>
+      <c r="F67" s="6" t="n"/>
+      <c r="G67" s="6" t="n"/>
+      <c r="H67" s="6" t="n"/>
+      <c r="I67" s="6" t="n"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="6" t="n"/>
+      <c r="B68" s="6" t="n"/>
+      <c r="C68" s="6" t="n"/>
+      <c r="D68" s="6" t="n"/>
+      <c r="E68" s="6" t="n"/>
+      <c r="F68" s="6" t="n"/>
+      <c r="G68" s="6" t="n"/>
+      <c r="H68" s="6" t="n"/>
+      <c r="I68" s="6" t="n"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="6" t="n"/>
+      <c r="B69" s="6" t="n"/>
+      <c r="C69" s="6" t="n"/>
+      <c r="D69" s="6" t="n"/>
+      <c r="E69" s="6" t="n"/>
+      <c r="F69" s="6" t="n"/>
+      <c r="G69" s="6" t="n"/>
+      <c r="H69" s="6" t="n"/>
+      <c r="I69" s="6" t="n"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="6" t="n"/>
+      <c r="B70" s="6" t="n"/>
+      <c r="C70" s="6" t="n"/>
+      <c r="D70" s="6" t="n"/>
+      <c r="E70" s="6" t="n"/>
+      <c r="F70" s="6" t="n"/>
+      <c r="G70" s="6" t="n"/>
+      <c r="H70" s="6" t="n"/>
+      <c r="I70" s="6" t="n"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="6" t="n"/>
+      <c r="B71" s="6" t="n"/>
+      <c r="C71" s="6" t="n"/>
+      <c r="D71" s="6" t="n"/>
+      <c r="E71" s="6" t="n"/>
+      <c r="F71" s="6" t="n"/>
+      <c r="G71" s="6" t="n"/>
+      <c r="H71" s="6" t="n"/>
+      <c r="I71" s="6" t="n"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="6" t="n"/>
+      <c r="B72" s="6" t="n"/>
+      <c r="C72" s="6" t="n"/>
+      <c r="D72" s="6" t="n"/>
+      <c r="E72" s="6" t="n"/>
+      <c r="F72" s="6" t="n"/>
+      <c r="G72" s="6" t="n"/>
+      <c r="H72" s="6" t="n"/>
+      <c r="I72" s="6" t="n"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="6" t="n"/>
+      <c r="B73" s="6" t="n"/>
+      <c r="C73" s="6" t="n"/>
+      <c r="D73" s="6" t="n"/>
+      <c r="E73" s="6" t="n"/>
+      <c r="F73" s="6" t="n"/>
+      <c r="G73" s="6" t="n"/>
+      <c r="H73" s="6" t="n"/>
+      <c r="I73" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5245,7 +6498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5262,19 +6515,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="6" t="n"/>
       <c r="G1" s="6" t="n"/>
@@ -5286,16 +6539,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="6" t="n"/>
@@ -5304,19 +6557,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="6" t="n"/>
@@ -5325,19 +6578,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="6" t="n"/>
@@ -5904,6 +7157,204 @@
       <c r="G55" s="6" t="n"/>
       <c r="H55" s="6" t="n"/>
       <c r="I55" s="6" t="n"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="6" t="n"/>
+      <c r="D56" s="6" t="n"/>
+      <c r="E56" s="6" t="n"/>
+      <c r="F56" s="6" t="n"/>
+      <c r="G56" s="6" t="n"/>
+      <c r="H56" s="6" t="n"/>
+      <c r="I56" s="6" t="n"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="6" t="n"/>
+      <c r="D57" s="6" t="n"/>
+      <c r="E57" s="6" t="n"/>
+      <c r="F57" s="6" t="n"/>
+      <c r="G57" s="6" t="n"/>
+      <c r="H57" s="6" t="n"/>
+      <c r="I57" s="6" t="n"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="6" t="n"/>
+      <c r="D58" s="6" t="n"/>
+      <c r="E58" s="6" t="n"/>
+      <c r="F58" s="6" t="n"/>
+      <c r="G58" s="6" t="n"/>
+      <c r="H58" s="6" t="n"/>
+      <c r="I58" s="6" t="n"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="C59" s="6" t="n"/>
+      <c r="D59" s="6" t="n"/>
+      <c r="E59" s="6" t="n"/>
+      <c r="F59" s="6" t="n"/>
+      <c r="G59" s="6" t="n"/>
+      <c r="H59" s="6" t="n"/>
+      <c r="I59" s="6" t="n"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="6" t="n"/>
+      <c r="B60" s="6" t="n"/>
+      <c r="C60" s="6" t="n"/>
+      <c r="D60" s="6" t="n"/>
+      <c r="E60" s="6" t="n"/>
+      <c r="F60" s="6" t="n"/>
+      <c r="G60" s="6" t="n"/>
+      <c r="H60" s="6" t="n"/>
+      <c r="I60" s="6" t="n"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="6" t="n"/>
+      <c r="B61" s="6" t="n"/>
+      <c r="C61" s="6" t="n"/>
+      <c r="D61" s="6" t="n"/>
+      <c r="E61" s="6" t="n"/>
+      <c r="F61" s="6" t="n"/>
+      <c r="G61" s="6" t="n"/>
+      <c r="H61" s="6" t="n"/>
+      <c r="I61" s="6" t="n"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="6" t="n"/>
+      <c r="B62" s="6" t="n"/>
+      <c r="C62" s="6" t="n"/>
+      <c r="D62" s="6" t="n"/>
+      <c r="E62" s="6" t="n"/>
+      <c r="F62" s="6" t="n"/>
+      <c r="G62" s="6" t="n"/>
+      <c r="H62" s="6" t="n"/>
+      <c r="I62" s="6" t="n"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="6" t="n"/>
+      <c r="B63" s="6" t="n"/>
+      <c r="C63" s="6" t="n"/>
+      <c r="D63" s="6" t="n"/>
+      <c r="E63" s="6" t="n"/>
+      <c r="F63" s="6" t="n"/>
+      <c r="G63" s="6" t="n"/>
+      <c r="H63" s="6" t="n"/>
+      <c r="I63" s="6" t="n"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="6" t="n"/>
+      <c r="B64" s="6" t="n"/>
+      <c r="C64" s="6" t="n"/>
+      <c r="D64" s="6" t="n"/>
+      <c r="E64" s="6" t="n"/>
+      <c r="F64" s="6" t="n"/>
+      <c r="G64" s="6" t="n"/>
+      <c r="H64" s="6" t="n"/>
+      <c r="I64" s="6" t="n"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="6" t="n"/>
+      <c r="B65" s="6" t="n"/>
+      <c r="C65" s="6" t="n"/>
+      <c r="D65" s="6" t="n"/>
+      <c r="E65" s="6" t="n"/>
+      <c r="F65" s="6" t="n"/>
+      <c r="G65" s="6" t="n"/>
+      <c r="H65" s="6" t="n"/>
+      <c r="I65" s="6" t="n"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="6" t="n"/>
+      <c r="B66" s="6" t="n"/>
+      <c r="C66" s="6" t="n"/>
+      <c r="D66" s="6" t="n"/>
+      <c r="E66" s="6" t="n"/>
+      <c r="F66" s="6" t="n"/>
+      <c r="G66" s="6" t="n"/>
+      <c r="H66" s="6" t="n"/>
+      <c r="I66" s="6" t="n"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="6" t="n"/>
+      <c r="B67" s="6" t="n"/>
+      <c r="C67" s="6" t="n"/>
+      <c r="D67" s="6" t="n"/>
+      <c r="E67" s="6" t="n"/>
+      <c r="F67" s="6" t="n"/>
+      <c r="G67" s="6" t="n"/>
+      <c r="H67" s="6" t="n"/>
+      <c r="I67" s="6" t="n"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="6" t="n"/>
+      <c r="B68" s="6" t="n"/>
+      <c r="C68" s="6" t="n"/>
+      <c r="D68" s="6" t="n"/>
+      <c r="E68" s="6" t="n"/>
+      <c r="F68" s="6" t="n"/>
+      <c r="G68" s="6" t="n"/>
+      <c r="H68" s="6" t="n"/>
+      <c r="I68" s="6" t="n"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="6" t="n"/>
+      <c r="B69" s="6" t="n"/>
+      <c r="C69" s="6" t="n"/>
+      <c r="D69" s="6" t="n"/>
+      <c r="E69" s="6" t="n"/>
+      <c r="F69" s="6" t="n"/>
+      <c r="G69" s="6" t="n"/>
+      <c r="H69" s="6" t="n"/>
+      <c r="I69" s="6" t="n"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="6" t="n"/>
+      <c r="B70" s="6" t="n"/>
+      <c r="C70" s="6" t="n"/>
+      <c r="D70" s="6" t="n"/>
+      <c r="E70" s="6" t="n"/>
+      <c r="F70" s="6" t="n"/>
+      <c r="G70" s="6" t="n"/>
+      <c r="H70" s="6" t="n"/>
+      <c r="I70" s="6" t="n"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="6" t="n"/>
+      <c r="B71" s="6" t="n"/>
+      <c r="C71" s="6" t="n"/>
+      <c r="D71" s="6" t="n"/>
+      <c r="E71" s="6" t="n"/>
+      <c r="F71" s="6" t="n"/>
+      <c r="G71" s="6" t="n"/>
+      <c r="H71" s="6" t="n"/>
+      <c r="I71" s="6" t="n"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="6" t="n"/>
+      <c r="B72" s="6" t="n"/>
+      <c r="C72" s="6" t="n"/>
+      <c r="D72" s="6" t="n"/>
+      <c r="E72" s="6" t="n"/>
+      <c r="F72" s="6" t="n"/>
+      <c r="G72" s="6" t="n"/>
+      <c r="H72" s="6" t="n"/>
+      <c r="I72" s="6" t="n"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="6" t="n"/>
+      <c r="B73" s="6" t="n"/>
+      <c r="C73" s="6" t="n"/>
+      <c r="D73" s="6" t="n"/>
+      <c r="E73" s="6" t="n"/>
+      <c r="F73" s="6" t="n"/>
+      <c r="G73" s="6" t="n"/>
+      <c r="H73" s="6" t="n"/>
+      <c r="I73" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5916,7 +7367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5931,13 +7382,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="6" t="n"/>
       <c r="E1" s="6" t="n"/>
@@ -5948,13 +7399,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="6" t="n"/>
       <c r="E2" s="6" t="n"/>
@@ -5965,13 +7416,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D3" s="6" t="n"/>
       <c r="E3" s="6" t="n"/>
@@ -5982,13 +7433,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D4" s="6" t="n"/>
       <c r="E4" s="6" t="n"/>
@@ -5999,13 +7450,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D5" s="6" t="n"/>
       <c r="E5" s="6" t="n"/>
@@ -6016,13 +7467,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D6" s="6" t="n"/>
       <c r="E6" s="6" t="n"/>
@@ -6033,13 +7484,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" s="6" t="n"/>
       <c r="E7" s="6" t="n"/>
@@ -6050,13 +7501,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D8" s="6" t="n"/>
       <c r="E8" s="6" t="n"/>
@@ -6067,13 +7518,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D9" s="6" t="n"/>
       <c r="E9" s="6" t="n"/>
@@ -6084,13 +7535,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D10" s="6" t="n"/>
       <c r="E10" s="6" t="n"/>
@@ -6101,13 +7552,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D11" s="6" t="n"/>
       <c r="E11" s="6" t="n"/>
@@ -6118,13 +7569,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D12" s="6" t="n"/>
       <c r="E12" s="6" t="n"/>
@@ -6135,13 +7586,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D13" s="6" t="n"/>
       <c r="E13" s="6" t="n"/>
@@ -6152,13 +7603,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D14" s="6" t="n"/>
       <c r="E14" s="6" t="n"/>
@@ -6169,13 +7620,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D15" s="6" t="n"/>
       <c r="E15" s="6" t="n"/>
@@ -6186,13 +7637,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D16" s="6" t="n"/>
       <c r="E16" s="6" t="n"/>
@@ -6203,13 +7654,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D17" s="6" t="n"/>
       <c r="E17" s="6" t="n"/>
@@ -6220,13 +7671,13 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D18" s="6" t="n"/>
       <c r="E18" s="6" t="n"/>
@@ -6237,13 +7688,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D19" s="6" t="n"/>
       <c r="E19" s="6" t="n"/>
@@ -6253,9 +7704,15 @@
       <c r="I19" s="6" t="n"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="n"/>
+      <c r="A20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="D20" s="6" t="n"/>
       <c r="E20" s="6" t="n"/>
       <c r="F20" s="6" t="n"/>
@@ -6264,9 +7721,15 @@
       <c r="I20" s="6" t="n"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
+      <c r="A21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="D21" s="6" t="n"/>
       <c r="E21" s="6" t="n"/>
       <c r="F21" s="6" t="n"/>
@@ -6275,9 +7738,15 @@
       <c r="I21" s="6" t="n"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="n"/>
+      <c r="A22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="D22" s="6" t="n"/>
       <c r="E22" s="6" t="n"/>
       <c r="F22" s="6" t="n"/>
@@ -6286,9 +7755,15 @@
       <c r="I22" s="6" t="n"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
+      <c r="A23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="D23" s="6" t="n"/>
       <c r="E23" s="6" t="n"/>
       <c r="F23" s="6" t="n"/>
@@ -6297,9 +7772,15 @@
       <c r="I23" s="6" t="n"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
+      <c r="A24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="D24" s="6" t="n"/>
       <c r="E24" s="6" t="n"/>
       <c r="F24" s="6" t="n"/>
@@ -6308,9 +7789,15 @@
       <c r="I24" s="6" t="n"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
+      <c r="A25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="D25" s="6" t="n"/>
       <c r="E25" s="6" t="n"/>
       <c r="F25" s="6" t="n"/>
@@ -6319,9 +7806,15 @@
       <c r="I25" s="6" t="n"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="6" t="n"/>
-      <c r="C26" s="6" t="n"/>
+      <c r="A26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="D26" s="6" t="n"/>
       <c r="E26" s="6" t="n"/>
       <c r="F26" s="6" t="n"/>
@@ -6647,6 +8140,204 @@
       <c r="G55" s="6" t="n"/>
       <c r="H55" s="6" t="n"/>
       <c r="I55" s="6" t="n"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="6" t="n"/>
+      <c r="D56" s="6" t="n"/>
+      <c r="E56" s="6" t="n"/>
+      <c r="F56" s="6" t="n"/>
+      <c r="G56" s="6" t="n"/>
+      <c r="H56" s="6" t="n"/>
+      <c r="I56" s="6" t="n"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="6" t="n"/>
+      <c r="D57" s="6" t="n"/>
+      <c r="E57" s="6" t="n"/>
+      <c r="F57" s="6" t="n"/>
+      <c r="G57" s="6" t="n"/>
+      <c r="H57" s="6" t="n"/>
+      <c r="I57" s="6" t="n"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="6" t="n"/>
+      <c r="D58" s="6" t="n"/>
+      <c r="E58" s="6" t="n"/>
+      <c r="F58" s="6" t="n"/>
+      <c r="G58" s="6" t="n"/>
+      <c r="H58" s="6" t="n"/>
+      <c r="I58" s="6" t="n"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="C59" s="6" t="n"/>
+      <c r="D59" s="6" t="n"/>
+      <c r="E59" s="6" t="n"/>
+      <c r="F59" s="6" t="n"/>
+      <c r="G59" s="6" t="n"/>
+      <c r="H59" s="6" t="n"/>
+      <c r="I59" s="6" t="n"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="6" t="n"/>
+      <c r="B60" s="6" t="n"/>
+      <c r="C60" s="6" t="n"/>
+      <c r="D60" s="6" t="n"/>
+      <c r="E60" s="6" t="n"/>
+      <c r="F60" s="6" t="n"/>
+      <c r="G60" s="6" t="n"/>
+      <c r="H60" s="6" t="n"/>
+      <c r="I60" s="6" t="n"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="6" t="n"/>
+      <c r="B61" s="6" t="n"/>
+      <c r="C61" s="6" t="n"/>
+      <c r="D61" s="6" t="n"/>
+      <c r="E61" s="6" t="n"/>
+      <c r="F61" s="6" t="n"/>
+      <c r="G61" s="6" t="n"/>
+      <c r="H61" s="6" t="n"/>
+      <c r="I61" s="6" t="n"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="6" t="n"/>
+      <c r="B62" s="6" t="n"/>
+      <c r="C62" s="6" t="n"/>
+      <c r="D62" s="6" t="n"/>
+      <c r="E62" s="6" t="n"/>
+      <c r="F62" s="6" t="n"/>
+      <c r="G62" s="6" t="n"/>
+      <c r="H62" s="6" t="n"/>
+      <c r="I62" s="6" t="n"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="6" t="n"/>
+      <c r="B63" s="6" t="n"/>
+      <c r="C63" s="6" t="n"/>
+      <c r="D63" s="6" t="n"/>
+      <c r="E63" s="6" t="n"/>
+      <c r="F63" s="6" t="n"/>
+      <c r="G63" s="6" t="n"/>
+      <c r="H63" s="6" t="n"/>
+      <c r="I63" s="6" t="n"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="6" t="n"/>
+      <c r="B64" s="6" t="n"/>
+      <c r="C64" s="6" t="n"/>
+      <c r="D64" s="6" t="n"/>
+      <c r="E64" s="6" t="n"/>
+      <c r="F64" s="6" t="n"/>
+      <c r="G64" s="6" t="n"/>
+      <c r="H64" s="6" t="n"/>
+      <c r="I64" s="6" t="n"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="6" t="n"/>
+      <c r="B65" s="6" t="n"/>
+      <c r="C65" s="6" t="n"/>
+      <c r="D65" s="6" t="n"/>
+      <c r="E65" s="6" t="n"/>
+      <c r="F65" s="6" t="n"/>
+      <c r="G65" s="6" t="n"/>
+      <c r="H65" s="6" t="n"/>
+      <c r="I65" s="6" t="n"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="6" t="n"/>
+      <c r="B66" s="6" t="n"/>
+      <c r="C66" s="6" t="n"/>
+      <c r="D66" s="6" t="n"/>
+      <c r="E66" s="6" t="n"/>
+      <c r="F66" s="6" t="n"/>
+      <c r="G66" s="6" t="n"/>
+      <c r="H66" s="6" t="n"/>
+      <c r="I66" s="6" t="n"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="6" t="n"/>
+      <c r="B67" s="6" t="n"/>
+      <c r="C67" s="6" t="n"/>
+      <c r="D67" s="6" t="n"/>
+      <c r="E67" s="6" t="n"/>
+      <c r="F67" s="6" t="n"/>
+      <c r="G67" s="6" t="n"/>
+      <c r="H67" s="6" t="n"/>
+      <c r="I67" s="6" t="n"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="6" t="n"/>
+      <c r="B68" s="6" t="n"/>
+      <c r="C68" s="6" t="n"/>
+      <c r="D68" s="6" t="n"/>
+      <c r="E68" s="6" t="n"/>
+      <c r="F68" s="6" t="n"/>
+      <c r="G68" s="6" t="n"/>
+      <c r="H68" s="6" t="n"/>
+      <c r="I68" s="6" t="n"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="6" t="n"/>
+      <c r="B69" s="6" t="n"/>
+      <c r="C69" s="6" t="n"/>
+      <c r="D69" s="6" t="n"/>
+      <c r="E69" s="6" t="n"/>
+      <c r="F69" s="6" t="n"/>
+      <c r="G69" s="6" t="n"/>
+      <c r="H69" s="6" t="n"/>
+      <c r="I69" s="6" t="n"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="6" t="n"/>
+      <c r="B70" s="6" t="n"/>
+      <c r="C70" s="6" t="n"/>
+      <c r="D70" s="6" t="n"/>
+      <c r="E70" s="6" t="n"/>
+      <c r="F70" s="6" t="n"/>
+      <c r="G70" s="6" t="n"/>
+      <c r="H70" s="6" t="n"/>
+      <c r="I70" s="6" t="n"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="6" t="n"/>
+      <c r="B71" s="6" t="n"/>
+      <c r="C71" s="6" t="n"/>
+      <c r="D71" s="6" t="n"/>
+      <c r="E71" s="6" t="n"/>
+      <c r="F71" s="6" t="n"/>
+      <c r="G71" s="6" t="n"/>
+      <c r="H71" s="6" t="n"/>
+      <c r="I71" s="6" t="n"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="6" t="n"/>
+      <c r="B72" s="6" t="n"/>
+      <c r="C72" s="6" t="n"/>
+      <c r="D72" s="6" t="n"/>
+      <c r="E72" s="6" t="n"/>
+      <c r="F72" s="6" t="n"/>
+      <c r="G72" s="6" t="n"/>
+      <c r="H72" s="6" t="n"/>
+      <c r="I72" s="6" t="n"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="6" t="n"/>
+      <c r="B73" s="6" t="n"/>
+      <c r="C73" s="6" t="n"/>
+      <c r="D73" s="6" t="n"/>
+      <c r="E73" s="6" t="n"/>
+      <c r="F73" s="6" t="n"/>
+      <c r="G73" s="6" t="n"/>
+      <c r="H73" s="6" t="n"/>
+      <c r="I73" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6659,7 +8350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6677,22 +8368,22 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="6" t="n"/>
       <c r="H1" s="6" t="n"/>
@@ -6703,19 +8394,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6" t="n"/>
       <c r="H2" s="6" t="n"/>
@@ -6726,19 +8417,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" s="6" t="n"/>
       <c r="H3" s="6" t="n"/>
@@ -6749,19 +8440,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G4" s="6" t="n"/>
       <c r="H4" s="6" t="n"/>
@@ -6772,19 +8463,19 @@
         <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="6" t="n"/>
       <c r="H5" s="6" t="n"/>
@@ -6795,19 +8486,19 @@
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" s="6" t="n"/>
       <c r="H6" s="6" t="n"/>
@@ -6818,19 +8509,19 @@
         <v>16</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G7" s="6" t="n"/>
       <c r="H7" s="6" t="n"/>
@@ -6841,19 +8532,19 @@
         <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" s="6" t="n"/>
       <c r="H8" s="6" t="n"/>
@@ -6864,19 +8555,19 @@
         <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" s="6" t="n"/>
       <c r="H9" s="6" t="n"/>
@@ -6887,19 +8578,19 @@
         <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G10" s="6" t="n"/>
       <c r="H10" s="6" t="n"/>
@@ -6910,19 +8601,19 @@
         <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" s="6" t="n"/>
       <c r="H11" s="6" t="n"/>
@@ -6933,19 +8624,19 @@
         <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="6" t="n"/>
       <c r="H12" s="6" t="n"/>
@@ -6956,19 +8647,19 @@
         <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="G13" s="6" t="n"/>
       <c r="H13" s="6" t="n"/>
@@ -6979,19 +8670,19 @@
         <v>23</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" s="6" t="n"/>
       <c r="H14" s="6" t="n"/>
@@ -7002,19 +8693,19 @@
         <v>23</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" s="6" t="n"/>
       <c r="H15" s="6" t="n"/>
@@ -7025,19 +8716,19 @@
         <v>23</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G16" s="6" t="n"/>
       <c r="H16" s="6" t="n"/>
@@ -7048,19 +8739,19 @@
         <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G17" s="6" t="n"/>
       <c r="H17" s="6" t="n"/>
@@ -7071,19 +8762,19 @@
         <v>24</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" s="6" t="n"/>
       <c r="H18" s="6" t="n"/>
@@ -7094,19 +8785,19 @@
         <v>24</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G19" s="6" t="n"/>
       <c r="H19" s="6" t="n"/>
@@ -7117,19 +8808,19 @@
         <v>25</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G20" s="6" t="n"/>
       <c r="H20" s="6" t="n"/>
@@ -7140,19 +8831,19 @@
         <v>25</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G21" s="6" t="n"/>
       <c r="H21" s="6" t="n"/>
@@ -7163,19 +8854,19 @@
         <v>25</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G22" s="6" t="n"/>
       <c r="H22" s="6" t="n"/>
@@ -7186,19 +8877,19 @@
         <v>26</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G23" s="6" t="n"/>
       <c r="H23" s="6" t="n"/>
@@ -7209,19 +8900,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G24" s="6" t="n"/>
       <c r="H24" s="6" t="n"/>
@@ -7232,19 +8923,19 @@
         <v>26</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G25" s="6" t="n"/>
       <c r="H25" s="6" t="n"/>
@@ -7255,19 +8946,19 @@
         <v>27</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G26" s="6" t="n"/>
       <c r="H26" s="6" t="n"/>
@@ -7278,19 +8969,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G27" s="6" t="n"/>
       <c r="H27" s="6" t="n"/>
@@ -7301,19 +8992,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G28" s="6" t="n"/>
       <c r="H28" s="6" t="n"/>
@@ -7324,19 +9015,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G29" s="6" t="n"/>
       <c r="H29" s="6" t="n"/>
@@ -7347,19 +9038,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G30" s="6" t="n"/>
       <c r="H30" s="6" t="n"/>
@@ -7370,19 +9061,19 @@
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="G31" s="6" t="n"/>
       <c r="H31" s="6" t="n"/>
@@ -7390,22 +9081,22 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G32" s="6" t="n"/>
       <c r="H32" s="6" t="n"/>
@@ -7413,22 +9104,22 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G33" s="6" t="n"/>
       <c r="H33" s="6" t="n"/>
@@ -7436,22 +9127,22 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="G34" s="6" t="n"/>
       <c r="H34" s="6" t="n"/>
@@ -7459,22 +9150,22 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G35" s="6" t="n"/>
       <c r="H35" s="6" t="n"/>
@@ -7482,22 +9173,22 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C36" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G36" s="6" t="n"/>
       <c r="H36" s="6" t="n"/>
@@ -7505,22 +9196,22 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="G37" s="6" t="n"/>
       <c r="H37" s="6" t="n"/>
@@ -7528,22 +9219,22 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G38" s="6" t="n"/>
       <c r="H38" s="6" t="n"/>
@@ -7551,22 +9242,22 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G39" s="6" t="n"/>
       <c r="H39" s="6" t="n"/>
@@ -7574,22 +9265,22 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="G40" s="6" t="n"/>
       <c r="H40" s="6" t="n"/>
@@ -7597,22 +9288,22 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C41" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G41" s="6" t="n"/>
       <c r="H41" s="6" t="n"/>
@@ -7620,22 +9311,22 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G42" s="6" t="n"/>
       <c r="H42" s="6" t="n"/>
@@ -7643,22 +9334,22 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C43" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="G43" s="6" t="n"/>
       <c r="H43" s="6" t="n"/>
@@ -7666,22 +9357,22 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C44" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G44" s="6" t="n"/>
       <c r="H44" s="6" t="n"/>
@@ -7689,22 +9380,22 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C45" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="G45" s="6" t="n"/>
       <c r="H45" s="6" t="n"/>
@@ -7712,22 +9403,22 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C46" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="G46" s="6" t="n"/>
       <c r="H46" s="6" t="n"/>
@@ -7735,22 +9426,22 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G47" s="6" t="n"/>
       <c r="H47" s="6" t="n"/>
@@ -7758,22 +9449,22 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C48" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G48" s="6" t="n"/>
       <c r="H48" s="6" t="n"/>
@@ -7781,22 +9472,22 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C49" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="G49" s="6" t="n"/>
       <c r="H49" s="6" t="n"/>
@@ -7804,22 +9495,22 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C50" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G50" s="6" t="n"/>
       <c r="H50" s="6" t="n"/>
@@ -7827,22 +9518,22 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C51" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="G51" s="6" t="n"/>
       <c r="H51" s="6" t="n"/>
@@ -7850,22 +9541,22 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G52" s="6" t="n"/>
       <c r="H52" s="6" t="n"/>
@@ -7873,22 +9564,22 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G53" s="6" t="n"/>
       <c r="H53" s="6" t="n"/>
@@ -7896,22 +9587,22 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G54" s="6" t="n"/>
       <c r="H54" s="6" t="n"/>
@@ -7919,26 +9610,440 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C55" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G55" s="6" t="n"/>
       <c r="H55" s="6" t="n"/>
       <c r="I55" s="6" t="n"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" s="6" t="n"/>
+      <c r="H56" s="6" t="n"/>
+      <c r="I56" s="6" t="n"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" s="6" t="n"/>
+      <c r="H57" s="6" t="n"/>
+      <c r="I57" s="6" t="n"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" s="6" t="n"/>
+      <c r="H58" s="6" t="n"/>
+      <c r="I58" s="6" t="n"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" s="6" t="n"/>
+      <c r="H59" s="6" t="n"/>
+      <c r="I59" s="6" t="n"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" s="6" t="n"/>
+      <c r="H60" s="6" t="n"/>
+      <c r="I60" s="6" t="n"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G61" s="6" t="n"/>
+      <c r="H61" s="6" t="n"/>
+      <c r="I61" s="6" t="n"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" s="6" t="n"/>
+      <c r="H62" s="6" t="n"/>
+      <c r="I62" s="6" t="n"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G63" s="6" t="n"/>
+      <c r="H63" s="6" t="n"/>
+      <c r="I63" s="6" t="n"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" s="6" t="n"/>
+      <c r="H64" s="6" t="n"/>
+      <c r="I64" s="6" t="n"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65" s="6" t="n"/>
+      <c r="H65" s="6" t="n"/>
+      <c r="I65" s="6" t="n"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" s="6" t="n"/>
+      <c r="H66" s="6" t="n"/>
+      <c r="I66" s="6" t="n"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G67" s="6" t="n"/>
+      <c r="H67" s="6" t="n"/>
+      <c r="I67" s="6" t="n"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68" s="6" t="n"/>
+      <c r="H68" s="6" t="n"/>
+      <c r="I68" s="6" t="n"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G69" s="6" t="n"/>
+      <c r="H69" s="6" t="n"/>
+      <c r="I69" s="6" t="n"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G70" s="6" t="n"/>
+      <c r="H70" s="6" t="n"/>
+      <c r="I70" s="6" t="n"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" s="6" t="n"/>
+      <c r="H71" s="6" t="n"/>
+      <c r="I71" s="6" t="n"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G72" s="6" t="n"/>
+      <c r="H72" s="6" t="n"/>
+      <c r="I72" s="6" t="n"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G73" s="6" t="n"/>
+      <c r="H73" s="6" t="n"/>
+      <c r="I73" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -7951,7 +10056,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7965,10 +10070,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C1" s="6" t="n"/>
       <c r="D1" s="6" t="n"/>
@@ -7983,7 +10088,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" s="6" t="n"/>
       <c r="D2" s="6" t="n"/>
@@ -7998,7 +10103,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3" s="6" t="n"/>
       <c r="D3" s="6" t="n"/>
@@ -8013,7 +10118,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" s="6" t="n"/>
       <c r="D4" s="6" t="n"/>
@@ -8028,7 +10133,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C5" s="6" t="n"/>
       <c r="D5" s="6" t="n"/>
@@ -8043,7 +10148,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="n"/>
       <c r="D6" s="6" t="n"/>
@@ -8058,7 +10163,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6" t="n"/>
       <c r="D7" s="6" t="n"/>
@@ -8073,7 +10178,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C8" s="6" t="n"/>
       <c r="D8" s="6" t="n"/>
@@ -8088,7 +10193,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C9" s="6" t="n"/>
       <c r="D9" s="6" t="n"/>
@@ -8103,7 +10208,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C10" s="6" t="n"/>
       <c r="D10" s="6" t="n"/>
@@ -8118,7 +10223,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="C11" s="6" t="n"/>
       <c r="D11" s="6" t="n"/>
@@ -8130,10 +10235,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="C12" s="6" t="n"/>
       <c r="D12" s="6" t="n"/>
@@ -8145,10 +10250,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="C13" s="6" t="n"/>
       <c r="D13" s="6" t="n"/>
@@ -8160,10 +10265,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="C14" s="6" t="n"/>
       <c r="D14" s="6" t="n"/>
@@ -8175,10 +10280,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="C15" s="6" t="n"/>
       <c r="D15" s="6" t="n"/>
@@ -8190,10 +10295,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="C16" s="6" t="n"/>
       <c r="D16" s="6" t="n"/>
@@ -8205,10 +10310,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="C17" s="6" t="n"/>
       <c r="D17" s="6" t="n"/>
@@ -8220,10 +10325,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C18" s="6" t="n"/>
       <c r="D18" s="6" t="n"/>
@@ -8235,10 +10340,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C19" s="6" t="n"/>
       <c r="D19" s="6" t="n"/>
@@ -8249,8 +10354,12 @@
       <c r="I19" s="6" t="n"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="6" t="n"/>
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="C20" s="6" t="n"/>
       <c r="D20" s="6" t="n"/>
       <c r="E20" s="6" t="n"/>
@@ -8260,8 +10369,12 @@
       <c r="I20" s="6" t="n"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="6" t="n"/>
+      <c r="A21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="C21" s="6" t="n"/>
       <c r="D21" s="6" t="n"/>
       <c r="E21" s="6" t="n"/>
@@ -8271,8 +10384,12 @@
       <c r="I21" s="6" t="n"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="6" t="n"/>
+      <c r="A22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="C22" s="6" t="n"/>
       <c r="D22" s="6" t="n"/>
       <c r="E22" s="6" t="n"/>
@@ -8282,8 +10399,12 @@
       <c r="I22" s="6" t="n"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="n"/>
+      <c r="A23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="C23" s="6" t="n"/>
       <c r="D23" s="6" t="n"/>
       <c r="E23" s="6" t="n"/>
@@ -8293,8 +10414,12 @@
       <c r="I23" s="6" t="n"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="6" t="n"/>
+      <c r="A24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="C24" s="6" t="n"/>
       <c r="D24" s="6" t="n"/>
       <c r="E24" s="6" t="n"/>
@@ -8304,8 +10429,12 @@
       <c r="I24" s="6" t="n"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
+      <c r="A25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="C25" s="6" t="n"/>
       <c r="D25" s="6" t="n"/>
       <c r="E25" s="6" t="n"/>
@@ -8643,6 +10772,204 @@
       <c r="G55" s="6" t="n"/>
       <c r="H55" s="6" t="n"/>
       <c r="I55" s="6" t="n"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="6" t="n"/>
+      <c r="D56" s="6" t="n"/>
+      <c r="E56" s="6" t="n"/>
+      <c r="F56" s="6" t="n"/>
+      <c r="G56" s="6" t="n"/>
+      <c r="H56" s="6" t="n"/>
+      <c r="I56" s="6" t="n"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="6" t="n"/>
+      <c r="D57" s="6" t="n"/>
+      <c r="E57" s="6" t="n"/>
+      <c r="F57" s="6" t="n"/>
+      <c r="G57" s="6" t="n"/>
+      <c r="H57" s="6" t="n"/>
+      <c r="I57" s="6" t="n"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="6" t="n"/>
+      <c r="D58" s="6" t="n"/>
+      <c r="E58" s="6" t="n"/>
+      <c r="F58" s="6" t="n"/>
+      <c r="G58" s="6" t="n"/>
+      <c r="H58" s="6" t="n"/>
+      <c r="I58" s="6" t="n"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="C59" s="6" t="n"/>
+      <c r="D59" s="6" t="n"/>
+      <c r="E59" s="6" t="n"/>
+      <c r="F59" s="6" t="n"/>
+      <c r="G59" s="6" t="n"/>
+      <c r="H59" s="6" t="n"/>
+      <c r="I59" s="6" t="n"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="6" t="n"/>
+      <c r="B60" s="6" t="n"/>
+      <c r="C60" s="6" t="n"/>
+      <c r="D60" s="6" t="n"/>
+      <c r="E60" s="6" t="n"/>
+      <c r="F60" s="6" t="n"/>
+      <c r="G60" s="6" t="n"/>
+      <c r="H60" s="6" t="n"/>
+      <c r="I60" s="6" t="n"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="6" t="n"/>
+      <c r="B61" s="6" t="n"/>
+      <c r="C61" s="6" t="n"/>
+      <c r="D61" s="6" t="n"/>
+      <c r="E61" s="6" t="n"/>
+      <c r="F61" s="6" t="n"/>
+      <c r="G61" s="6" t="n"/>
+      <c r="H61" s="6" t="n"/>
+      <c r="I61" s="6" t="n"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="6" t="n"/>
+      <c r="B62" s="6" t="n"/>
+      <c r="C62" s="6" t="n"/>
+      <c r="D62" s="6" t="n"/>
+      <c r="E62" s="6" t="n"/>
+      <c r="F62" s="6" t="n"/>
+      <c r="G62" s="6" t="n"/>
+      <c r="H62" s="6" t="n"/>
+      <c r="I62" s="6" t="n"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="6" t="n"/>
+      <c r="B63" s="6" t="n"/>
+      <c r="C63" s="6" t="n"/>
+      <c r="D63" s="6" t="n"/>
+      <c r="E63" s="6" t="n"/>
+      <c r="F63" s="6" t="n"/>
+      <c r="G63" s="6" t="n"/>
+      <c r="H63" s="6" t="n"/>
+      <c r="I63" s="6" t="n"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="6" t="n"/>
+      <c r="B64" s="6" t="n"/>
+      <c r="C64" s="6" t="n"/>
+      <c r="D64" s="6" t="n"/>
+      <c r="E64" s="6" t="n"/>
+      <c r="F64" s="6" t="n"/>
+      <c r="G64" s="6" t="n"/>
+      <c r="H64" s="6" t="n"/>
+      <c r="I64" s="6" t="n"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="6" t="n"/>
+      <c r="B65" s="6" t="n"/>
+      <c r="C65" s="6" t="n"/>
+      <c r="D65" s="6" t="n"/>
+      <c r="E65" s="6" t="n"/>
+      <c r="F65" s="6" t="n"/>
+      <c r="G65" s="6" t="n"/>
+      <c r="H65" s="6" t="n"/>
+      <c r="I65" s="6" t="n"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="6" t="n"/>
+      <c r="B66" s="6" t="n"/>
+      <c r="C66" s="6" t="n"/>
+      <c r="D66" s="6" t="n"/>
+      <c r="E66" s="6" t="n"/>
+      <c r="F66" s="6" t="n"/>
+      <c r="G66" s="6" t="n"/>
+      <c r="H66" s="6" t="n"/>
+      <c r="I66" s="6" t="n"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="6" t="n"/>
+      <c r="B67" s="6" t="n"/>
+      <c r="C67" s="6" t="n"/>
+      <c r="D67" s="6" t="n"/>
+      <c r="E67" s="6" t="n"/>
+      <c r="F67" s="6" t="n"/>
+      <c r="G67" s="6" t="n"/>
+      <c r="H67" s="6" t="n"/>
+      <c r="I67" s="6" t="n"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="6" t="n"/>
+      <c r="B68" s="6" t="n"/>
+      <c r="C68" s="6" t="n"/>
+      <c r="D68" s="6" t="n"/>
+      <c r="E68" s="6" t="n"/>
+      <c r="F68" s="6" t="n"/>
+      <c r="G68" s="6" t="n"/>
+      <c r="H68" s="6" t="n"/>
+      <c r="I68" s="6" t="n"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="6" t="n"/>
+      <c r="B69" s="6" t="n"/>
+      <c r="C69" s="6" t="n"/>
+      <c r="D69" s="6" t="n"/>
+      <c r="E69" s="6" t="n"/>
+      <c r="F69" s="6" t="n"/>
+      <c r="G69" s="6" t="n"/>
+      <c r="H69" s="6" t="n"/>
+      <c r="I69" s="6" t="n"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="6" t="n"/>
+      <c r="B70" s="6" t="n"/>
+      <c r="C70" s="6" t="n"/>
+      <c r="D70" s="6" t="n"/>
+      <c r="E70" s="6" t="n"/>
+      <c r="F70" s="6" t="n"/>
+      <c r="G70" s="6" t="n"/>
+      <c r="H70" s="6" t="n"/>
+      <c r="I70" s="6" t="n"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="6" t="n"/>
+      <c r="B71" s="6" t="n"/>
+      <c r="C71" s="6" t="n"/>
+      <c r="D71" s="6" t="n"/>
+      <c r="E71" s="6" t="n"/>
+      <c r="F71" s="6" t="n"/>
+      <c r="G71" s="6" t="n"/>
+      <c r="H71" s="6" t="n"/>
+      <c r="I71" s="6" t="n"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="6" t="n"/>
+      <c r="B72" s="6" t="n"/>
+      <c r="C72" s="6" t="n"/>
+      <c r="D72" s="6" t="n"/>
+      <c r="E72" s="6" t="n"/>
+      <c r="F72" s="6" t="n"/>
+      <c r="G72" s="6" t="n"/>
+      <c r="H72" s="6" t="n"/>
+      <c r="I72" s="6" t="n"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="6" t="n"/>
+      <c r="B73" s="6" t="n"/>
+      <c r="C73" s="6" t="n"/>
+      <c r="D73" s="6" t="n"/>
+      <c r="E73" s="6" t="n"/>
+      <c r="F73" s="6" t="n"/>
+      <c r="G73" s="6" t="n"/>
+      <c r="H73" s="6" t="n"/>
+      <c r="I73" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -8655,7 +10982,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8670,10 +10997,10 @@
     <row r="1" spans="1:9">
       <c r="A1" s="6" t="n"/>
       <c r="B1" s="5" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6" t="n"/>
       <c r="E1" s="6" t="n"/>
@@ -8687,10 +11014,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="D2" s="6" t="n"/>
       <c r="E2" s="6" t="n"/>
@@ -8704,10 +11031,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="D3" s="6" t="n"/>
       <c r="E3" s="6" t="n"/>
@@ -8721,10 +11048,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="D4" s="6" t="n"/>
       <c r="E4" s="6" t="n"/>
@@ -8738,10 +11065,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="D5" s="6" t="n"/>
       <c r="E5" s="6" t="n"/>
@@ -8755,10 +11082,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="D6" s="6" t="n"/>
       <c r="E6" s="6" t="n"/>
@@ -8772,10 +11099,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="D7" s="6" t="n"/>
       <c r="E7" s="6" t="n"/>
@@ -8789,10 +11116,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="D8" s="6" t="n"/>
       <c r="E8" s="6" t="n"/>
@@ -8806,10 +11133,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="D9" s="6" t="n"/>
       <c r="E9" s="6" t="n"/>
@@ -8823,10 +11150,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="D10" s="6" t="n"/>
       <c r="E10" s="6" t="n"/>
@@ -8840,10 +11167,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="D11" s="6" t="n"/>
       <c r="E11" s="6" t="n"/>
@@ -8857,10 +11184,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="D12" s="6" t="n"/>
       <c r="E12" s="6" t="n"/>
@@ -8874,10 +11201,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D13" s="6" t="n"/>
       <c r="E13" s="6" t="n"/>
@@ -8891,10 +11218,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="D14" s="6" t="n"/>
       <c r="E14" s="6" t="n"/>
@@ -8904,9 +11231,15 @@
       <c r="I14" s="6" t="n"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="6" t="n"/>
+      <c r="A15" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="D15" s="6" t="n"/>
       <c r="E15" s="6" t="n"/>
       <c r="F15" s="6" t="n"/>
@@ -8915,9 +11248,15 @@
       <c r="I15" s="6" t="n"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="6" t="n"/>
+      <c r="A16" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="D16" s="6" t="n"/>
       <c r="E16" s="6" t="n"/>
       <c r="F16" s="6" t="n"/>
@@ -8926,9 +11265,15 @@
       <c r="I16" s="6" t="n"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="n"/>
+      <c r="A17" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="D17" s="6" t="n"/>
       <c r="E17" s="6" t="n"/>
       <c r="F17" s="6" t="n"/>
@@ -8937,9 +11282,15 @@
       <c r="I17" s="6" t="n"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="6" t="n"/>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="n"/>
+      <c r="A18" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="D18" s="6" t="n"/>
       <c r="E18" s="6" t="n"/>
       <c r="F18" s="6" t="n"/>
@@ -8948,9 +11299,15 @@
       <c r="I18" s="6" t="n"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="6" t="n"/>
-      <c r="C19" s="6" t="n"/>
+      <c r="A19" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="D19" s="6" t="n"/>
       <c r="E19" s="6" t="n"/>
       <c r="F19" s="6" t="n"/>
@@ -8959,9 +11316,15 @@
       <c r="I19" s="6" t="n"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="n"/>
+      <c r="A20" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="D20" s="6" t="n"/>
       <c r="E20" s="6" t="n"/>
       <c r="F20" s="6" t="n"/>
@@ -8970,9 +11333,15 @@
       <c r="I20" s="6" t="n"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
+      <c r="A21" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="D21" s="6" t="n"/>
       <c r="E21" s="6" t="n"/>
       <c r="F21" s="6" t="n"/>
@@ -8981,9 +11350,15 @@
       <c r="I21" s="6" t="n"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="n"/>
+      <c r="A22" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="D22" s="6" t="n"/>
       <c r="E22" s="6" t="n"/>
       <c r="F22" s="6" t="n"/>
@@ -8992,9 +11367,15 @@
       <c r="I22" s="6" t="n"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
+      <c r="A23" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>190</v>
+      </c>
       <c r="D23" s="6" t="n"/>
       <c r="E23" s="6" t="n"/>
       <c r="F23" s="6" t="n"/>
@@ -9003,9 +11384,15 @@
       <c r="I23" s="6" t="n"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
+      <c r="A24" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="D24" s="6" t="n"/>
       <c r="E24" s="6" t="n"/>
       <c r="F24" s="6" t="n"/>
@@ -9014,9 +11401,15 @@
       <c r="I24" s="6" t="n"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
+      <c r="A25" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="D25" s="6" t="n"/>
       <c r="E25" s="6" t="n"/>
       <c r="F25" s="6" t="n"/>
@@ -9025,9 +11418,15 @@
       <c r="I25" s="6" t="n"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="6" t="n"/>
-      <c r="C26" s="6" t="n"/>
+      <c r="A26" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>196</v>
+      </c>
       <c r="D26" s="6" t="n"/>
       <c r="E26" s="6" t="n"/>
       <c r="F26" s="6" t="n"/>
@@ -9354,6 +11753,204 @@
       <c r="H55" s="6" t="n"/>
       <c r="I55" s="6" t="n"/>
     </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="6" t="n"/>
+      <c r="D56" s="6" t="n"/>
+      <c r="E56" s="6" t="n"/>
+      <c r="F56" s="6" t="n"/>
+      <c r="G56" s="6" t="n"/>
+      <c r="H56" s="6" t="n"/>
+      <c r="I56" s="6" t="n"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="6" t="n"/>
+      <c r="D57" s="6" t="n"/>
+      <c r="E57" s="6" t="n"/>
+      <c r="F57" s="6" t="n"/>
+      <c r="G57" s="6" t="n"/>
+      <c r="H57" s="6" t="n"/>
+      <c r="I57" s="6" t="n"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="6" t="n"/>
+      <c r="D58" s="6" t="n"/>
+      <c r="E58" s="6" t="n"/>
+      <c r="F58" s="6" t="n"/>
+      <c r="G58" s="6" t="n"/>
+      <c r="H58" s="6" t="n"/>
+      <c r="I58" s="6" t="n"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="C59" s="6" t="n"/>
+      <c r="D59" s="6" t="n"/>
+      <c r="E59" s="6" t="n"/>
+      <c r="F59" s="6" t="n"/>
+      <c r="G59" s="6" t="n"/>
+      <c r="H59" s="6" t="n"/>
+      <c r="I59" s="6" t="n"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="6" t="n"/>
+      <c r="B60" s="6" t="n"/>
+      <c r="C60" s="6" t="n"/>
+      <c r="D60" s="6" t="n"/>
+      <c r="E60" s="6" t="n"/>
+      <c r="F60" s="6" t="n"/>
+      <c r="G60" s="6" t="n"/>
+      <c r="H60" s="6" t="n"/>
+      <c r="I60" s="6" t="n"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="6" t="n"/>
+      <c r="B61" s="6" t="n"/>
+      <c r="C61" s="6" t="n"/>
+      <c r="D61" s="6" t="n"/>
+      <c r="E61" s="6" t="n"/>
+      <c r="F61" s="6" t="n"/>
+      <c r="G61" s="6" t="n"/>
+      <c r="H61" s="6" t="n"/>
+      <c r="I61" s="6" t="n"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="6" t="n"/>
+      <c r="B62" s="6" t="n"/>
+      <c r="C62" s="6" t="n"/>
+      <c r="D62" s="6" t="n"/>
+      <c r="E62" s="6" t="n"/>
+      <c r="F62" s="6" t="n"/>
+      <c r="G62" s="6" t="n"/>
+      <c r="H62" s="6" t="n"/>
+      <c r="I62" s="6" t="n"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="6" t="n"/>
+      <c r="B63" s="6" t="n"/>
+      <c r="C63" s="6" t="n"/>
+      <c r="D63" s="6" t="n"/>
+      <c r="E63" s="6" t="n"/>
+      <c r="F63" s="6" t="n"/>
+      <c r="G63" s="6" t="n"/>
+      <c r="H63" s="6" t="n"/>
+      <c r="I63" s="6" t="n"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="6" t="n"/>
+      <c r="B64" s="6" t="n"/>
+      <c r="C64" s="6" t="n"/>
+      <c r="D64" s="6" t="n"/>
+      <c r="E64" s="6" t="n"/>
+      <c r="F64" s="6" t="n"/>
+      <c r="G64" s="6" t="n"/>
+      <c r="H64" s="6" t="n"/>
+      <c r="I64" s="6" t="n"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="6" t="n"/>
+      <c r="B65" s="6" t="n"/>
+      <c r="C65" s="6" t="n"/>
+      <c r="D65" s="6" t="n"/>
+      <c r="E65" s="6" t="n"/>
+      <c r="F65" s="6" t="n"/>
+      <c r="G65" s="6" t="n"/>
+      <c r="H65" s="6" t="n"/>
+      <c r="I65" s="6" t="n"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="6" t="n"/>
+      <c r="B66" s="6" t="n"/>
+      <c r="C66" s="6" t="n"/>
+      <c r="D66" s="6" t="n"/>
+      <c r="E66" s="6" t="n"/>
+      <c r="F66" s="6" t="n"/>
+      <c r="G66" s="6" t="n"/>
+      <c r="H66" s="6" t="n"/>
+      <c r="I66" s="6" t="n"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="6" t="n"/>
+      <c r="B67" s="6" t="n"/>
+      <c r="C67" s="6" t="n"/>
+      <c r="D67" s="6" t="n"/>
+      <c r="E67" s="6" t="n"/>
+      <c r="F67" s="6" t="n"/>
+      <c r="G67" s="6" t="n"/>
+      <c r="H67" s="6" t="n"/>
+      <c r="I67" s="6" t="n"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="6" t="n"/>
+      <c r="B68" s="6" t="n"/>
+      <c r="C68" s="6" t="n"/>
+      <c r="D68" s="6" t="n"/>
+      <c r="E68" s="6" t="n"/>
+      <c r="F68" s="6" t="n"/>
+      <c r="G68" s="6" t="n"/>
+      <c r="H68" s="6" t="n"/>
+      <c r="I68" s="6" t="n"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="6" t="n"/>
+      <c r="B69" s="6" t="n"/>
+      <c r="C69" s="6" t="n"/>
+      <c r="D69" s="6" t="n"/>
+      <c r="E69" s="6" t="n"/>
+      <c r="F69" s="6" t="n"/>
+      <c r="G69" s="6" t="n"/>
+      <c r="H69" s="6" t="n"/>
+      <c r="I69" s="6" t="n"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="6" t="n"/>
+      <c r="B70" s="6" t="n"/>
+      <c r="C70" s="6" t="n"/>
+      <c r="D70" s="6" t="n"/>
+      <c r="E70" s="6" t="n"/>
+      <c r="F70" s="6" t="n"/>
+      <c r="G70" s="6" t="n"/>
+      <c r="H70" s="6" t="n"/>
+      <c r="I70" s="6" t="n"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="6" t="n"/>
+      <c r="B71" s="6" t="n"/>
+      <c r="C71" s="6" t="n"/>
+      <c r="D71" s="6" t="n"/>
+      <c r="E71" s="6" t="n"/>
+      <c r="F71" s="6" t="n"/>
+      <c r="G71" s="6" t="n"/>
+      <c r="H71" s="6" t="n"/>
+      <c r="I71" s="6" t="n"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="6" t="n"/>
+      <c r="B72" s="6" t="n"/>
+      <c r="C72" s="6" t="n"/>
+      <c r="D72" s="6" t="n"/>
+      <c r="E72" s="6" t="n"/>
+      <c r="F72" s="6" t="n"/>
+      <c r="G72" s="6" t="n"/>
+      <c r="H72" s="6" t="n"/>
+      <c r="I72" s="6" t="n"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="6" t="n"/>
+      <c r="B73" s="6" t="n"/>
+      <c r="C73" s="6" t="n"/>
+      <c r="D73" s="6" t="n"/>
+      <c r="E73" s="6" t="n"/>
+      <c r="F73" s="6" t="n"/>
+      <c r="G73" s="6" t="n"/>
+      <c r="H73" s="6" t="n"/>
+      <c r="I73" s="6" t="n"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
